--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,3175 +473,7350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/2004</t>
+          <t>1/1990</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.389</v>
+        <v>38.971</v>
       </c>
       <c r="C2" t="n">
-        <v>22.454</v>
+        <v>21.856</v>
       </c>
       <c r="D2" t="n">
-        <v>1.191330432</v>
+        <v>2.228163026</v>
       </c>
       <c r="E2" t="n">
-        <v>2.944691924</v>
+        <v>2.662459445</v>
       </c>
       <c r="F2" t="n">
-        <v>0.749948504</v>
+        <v>0.7401100430000001</v>
       </c>
       <c r="G2" t="n">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2/2004</t>
+          <t>2/1990</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.037</v>
+        <v>39.388</v>
       </c>
       <c r="C3" t="n">
-        <v>22.436</v>
+        <v>22.842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28839096</v>
+        <v>2.221297106</v>
       </c>
       <c r="E3" t="n">
-        <v>2.055876544</v>
+        <v>2.331357064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7251399630000001</v>
+        <v>0.735522361</v>
       </c>
       <c r="G3" t="n">
-        <v>25.5</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/2004</t>
+          <t>3/1990</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.635</v>
+        <v>40.283</v>
       </c>
       <c r="C4" t="n">
-        <v>23.888</v>
+        <v>22.621</v>
       </c>
       <c r="D4" t="n">
-        <v>7.257840372</v>
+        <v>6.10084764</v>
       </c>
       <c r="E4" t="n">
-        <v>1.90584327</v>
+        <v>2.213412834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.782248976</v>
+        <v>0.851085681</v>
       </c>
       <c r="G4" t="n">
-        <v>26.21</v>
+        <v>26.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/2004</t>
+          <t>4/1990</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.385</v>
+        <v>39.52</v>
       </c>
       <c r="C5" t="n">
-        <v>25.465</v>
+        <v>24.564</v>
       </c>
       <c r="D5" t="n">
-        <v>14.87273616</v>
+        <v>34.7236632</v>
       </c>
       <c r="E5" t="n">
-        <v>1.707036274</v>
+        <v>2.099805665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.911584091</v>
+        <v>0.850528978</v>
       </c>
       <c r="G5" t="n">
-        <v>24.99</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5/2004</t>
+          <t>5/1990</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.187</v>
+        <v>35.196</v>
       </c>
       <c r="C6" t="n">
-        <v>24.252</v>
+        <v>24.484</v>
       </c>
       <c r="D6" t="n">
-        <v>65.59866724</v>
+        <v>144.7277004</v>
       </c>
       <c r="E6" t="n">
-        <v>2.636116456</v>
+        <v>2.15907865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.967675577</v>
+        <v>0.973709375</v>
       </c>
       <c r="G6" t="n">
-        <v>25.53</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6/2004</t>
+          <t>6/1990</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.98</v>
+        <v>29.512</v>
       </c>
       <c r="C7" t="n">
-        <v>23.52</v>
+        <v>23.273</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2058088</v>
+        <v>46.101402</v>
       </c>
       <c r="E7" t="n">
-        <v>2.333497136</v>
+        <v>2.465808954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.964798921</v>
+        <v>0.959295119</v>
       </c>
       <c r="G7" t="n">
-        <v>24.93</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7/2004</t>
+          <t>7/1990</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.214</v>
+        <v>28.746</v>
       </c>
       <c r="C8" t="n">
-        <v>22.631</v>
+        <v>22.604</v>
       </c>
       <c r="D8" t="n">
-        <v>17.35839449</v>
+        <v>58.23267696</v>
       </c>
       <c r="E8" t="n">
-        <v>2.006585109</v>
+        <v>2.28428912</v>
       </c>
       <c r="F8" t="n">
-        <v>0.944914576</v>
+        <v>0.97602592</v>
       </c>
       <c r="G8" t="n">
-        <v>24.91</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8/2004</t>
+          <t>8/1990</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
       <c r="C9" t="n">
-        <v>22.917</v>
+        <v>22.735</v>
       </c>
       <c r="D9" t="n">
-        <v>42.4089432</v>
+        <v>37.3809816</v>
       </c>
       <c r="E9" t="n">
-        <v>2.416856199</v>
+        <v>2.433752816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9665038030000001</v>
+        <v>0.973796162</v>
       </c>
       <c r="G9" t="n">
-        <v>25.41</v>
+        <v>24.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9/2004</t>
+          <t>9/1990</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.865</v>
+        <v>32.372</v>
       </c>
       <c r="C10" t="n">
-        <v>23.119</v>
+        <v>22.571</v>
       </c>
       <c r="D10" t="n">
-        <v>94.92531443999999</v>
+        <v>70.4292588</v>
       </c>
       <c r="E10" t="n">
-        <v>1.846715366</v>
+        <v>2.047660205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.933173805</v>
+        <v>0.975878457</v>
       </c>
       <c r="G10" t="n">
-        <v>24.85</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10/2004</t>
+          <t>10/1990</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.876</v>
+        <v>38.83</v>
       </c>
       <c r="C11" t="n">
-        <v>23.011</v>
+        <v>23.01</v>
       </c>
       <c r="D11" t="n">
-        <v>60.69082203</v>
+        <v>59.308983</v>
       </c>
       <c r="E11" t="n">
-        <v>1.954110208</v>
+        <v>2.013814716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.967632377</v>
+        <v>0.9709477010000001</v>
       </c>
       <c r="G11" t="n">
-        <v>24.69</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/2004</t>
+          <t>11/1990</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.502</v>
+        <v>35.62</v>
       </c>
       <c r="C12" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52.39276956</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.142817359</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.966400535</v>
+      </c>
+      <c r="G12" t="n">
         <v>22.66</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24.40166785</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.576682253</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.903887532</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12/2004</t>
+          <t>12/1990</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.544</v>
+        <v>36.345</v>
       </c>
       <c r="C13" t="n">
-        <v>23.479</v>
+        <v>22.869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.027465833</v>
+        <v>12.46261464</v>
       </c>
       <c r="E13" t="n">
-        <v>2.505681389</v>
+        <v>2.892555612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.689754635</v>
+        <v>0.85768864</v>
       </c>
       <c r="G13" t="n">
-        <v>21.6</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2005</t>
+          <t>1/1991</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.561</v>
+        <v>40.088</v>
       </c>
       <c r="C14" t="n">
-        <v>23.251</v>
+        <v>22.24</v>
       </c>
       <c r="D14" t="n">
-        <v>2.22473106</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.371477931</v>
+        <v>2.596703246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.863024388</v>
+        <v>0.7241102699999999</v>
       </c>
       <c r="G14" t="n">
-        <v>22.02</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2/2005</t>
+          <t>2/1991</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.733</v>
+        <v>40.378</v>
       </c>
       <c r="C15" t="n">
-        <v>24.296</v>
+        <v>22.393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.377654904</v>
+        <v>5.68885536</v>
       </c>
       <c r="E15" t="n">
-        <v>2.737479945</v>
+        <v>1.897733638</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7190066470000001</v>
+        <v>0.7528360630000001</v>
       </c>
       <c r="G15" t="n">
-        <v>25.92</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/2005</t>
+          <t>3/1991</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.52</v>
+        <v>43.766</v>
       </c>
       <c r="C16" t="n">
-        <v>23.786</v>
+        <v>24.047</v>
       </c>
       <c r="D16" t="n">
-        <v>2.973175164</v>
+        <v>7.408906848</v>
       </c>
       <c r="E16" t="n">
-        <v>2.063574506</v>
+        <v>2.025043615</v>
       </c>
       <c r="F16" t="n">
-        <v>0.731292078</v>
+        <v>0.807228543</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4/2005</t>
+          <t>4/1991</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.428</v>
+        <v>38.146</v>
       </c>
       <c r="C17" t="n">
-        <v>25.409</v>
+        <v>25.02</v>
       </c>
       <c r="D17" t="n">
-        <v>45.98811378</v>
+        <v>128.0491117</v>
       </c>
       <c r="E17" t="n">
-        <v>1.80522223</v>
+        <v>2.324094325</v>
       </c>
       <c r="F17" t="n">
-        <v>0.896800169</v>
+        <v>0.882811252</v>
       </c>
       <c r="G17" t="n">
-        <v>26.27</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/2005</t>
+          <t>5/1991</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.24</v>
+        <v>37.986</v>
       </c>
       <c r="C18" t="n">
-        <v>25.344</v>
+        <v>24.969</v>
       </c>
       <c r="D18" t="n">
-        <v>83.59392132000001</v>
+        <v>23.37684388</v>
       </c>
       <c r="E18" t="n">
-        <v>1.938844308</v>
+        <v>2.008138275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.938070443</v>
+        <v>0.850158956</v>
       </c>
       <c r="G18" t="n">
-        <v>25.96</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6/2005</t>
+          <t>6/1991</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.804</v>
+        <v>33.771</v>
       </c>
       <c r="C19" t="n">
-        <v>25.389</v>
+        <v>24.73</v>
       </c>
       <c r="D19" t="n">
-        <v>53.04850452</v>
+        <v>123.3764615</v>
       </c>
       <c r="E19" t="n">
-        <v>1.685137631</v>
+        <v>2.832140315</v>
       </c>
       <c r="F19" t="n">
-        <v>0.965921502</v>
+        <v>0.97318955</v>
       </c>
       <c r="G19" t="n">
-        <v>24.85</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7/2005</t>
+          <t>7/1991</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.882</v>
+        <v>29.011</v>
       </c>
       <c r="C20" t="n">
-        <v>23.071</v>
+        <v>22.79</v>
       </c>
       <c r="D20" t="n">
-        <v>89.18149768000001</v>
+        <v>59.3896896</v>
       </c>
       <c r="E20" t="n">
-        <v>2.726020081</v>
+        <v>2.648678527</v>
       </c>
       <c r="F20" t="n">
-        <v>0.973267491</v>
+        <v>0.970208059</v>
       </c>
       <c r="G20" t="n">
-        <v>24.58</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8/2005</t>
+          <t>8/1991</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.64</v>
+        <v>29.402</v>
       </c>
       <c r="C21" t="n">
-        <v>22.924</v>
+        <v>22.654</v>
       </c>
       <c r="D21" t="n">
-        <v>45.9606096</v>
+        <v>68.61050640000001</v>
       </c>
       <c r="E21" t="n">
-        <v>2.194069111</v>
+        <v>2.16621328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.962009505</v>
+        <v>0.978056456</v>
       </c>
       <c r="G21" t="n">
-        <v>25.26</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9/2005</t>
+          <t>9/1991</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.69</v>
+        <v>32.267</v>
       </c>
       <c r="C22" t="n">
-        <v>23.281</v>
+        <v>22.732</v>
       </c>
       <c r="D22" t="n">
-        <v>79.95643200000001</v>
+        <v>34.97773158</v>
       </c>
       <c r="E22" t="n">
-        <v>2.055659058</v>
+        <v>1.938859239</v>
       </c>
       <c r="F22" t="n">
-        <v>0.970438066</v>
+        <v>0.970375782</v>
       </c>
       <c r="G22" t="n">
-        <v>24.89</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10/2005</t>
+          <t>10/1991</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.999</v>
+        <v>36.39</v>
       </c>
       <c r="C23" t="n">
-        <v>23.04</v>
+        <v>22.855</v>
       </c>
       <c r="D23" t="n">
-        <v>84.23766000000001</v>
+        <v>170.9746805</v>
       </c>
       <c r="E23" t="n">
-        <v>1.674596208</v>
+        <v>1.465129208</v>
       </c>
       <c r="F23" t="n">
-        <v>0.959470581</v>
+        <v>0.977845967</v>
       </c>
       <c r="G23" t="n">
-        <v>23.88</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11/2005</t>
+          <t>11/1991</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.738</v>
+        <v>34.851</v>
       </c>
       <c r="C24" t="n">
-        <v>22.515</v>
+        <v>22.126</v>
       </c>
       <c r="D24" t="n">
-        <v>20.5238362</v>
+        <v>163.2465661</v>
       </c>
       <c r="E24" t="n">
-        <v>1.849519242</v>
+        <v>2.490017047</v>
       </c>
       <c r="F24" t="n">
-        <v>0.962332412</v>
+        <v>0.972119356</v>
       </c>
       <c r="G24" t="n">
-        <v>22.24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12/2005</t>
+          <t>12/1991</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.988</v>
+        <v>36.133</v>
       </c>
       <c r="C25" t="n">
-        <v>22.643</v>
+        <v>23.235</v>
       </c>
       <c r="D25" t="n">
-        <v>19.2123355</v>
+        <v>9.792423064999999</v>
       </c>
       <c r="E25" t="n">
-        <v>2.347835459</v>
+        <v>2.778762686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.952714097</v>
+        <v>0.911409875</v>
       </c>
       <c r="G25" t="n">
-        <v>21.31</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2006</t>
+          <t>1/1992</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38.635</v>
+        <v>36.82</v>
       </c>
       <c r="C26" t="n">
-        <v>23.65</v>
+        <v>22.37</v>
       </c>
       <c r="D26" t="n">
-        <v>7.10334828</v>
+        <v>4.988479406</v>
       </c>
       <c r="E26" t="n">
-        <v>2.121971672</v>
+        <v>2.65624659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.731884525</v>
+        <v>0.811603105</v>
       </c>
       <c r="G26" t="n">
-        <v>23.16</v>
+        <v>22.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2/2006</t>
+          <t>2/1992</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.842</v>
+        <v>37.854</v>
       </c>
       <c r="C27" t="n">
-        <v>21.859</v>
+        <v>21.846</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.442886177</v>
       </c>
       <c r="E27" t="n">
-        <v>2.245037187</v>
+        <v>1.969089069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.619014908</v>
+        <v>0.738103697</v>
       </c>
       <c r="G27" t="n">
-        <v>25.56</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/2006</t>
+          <t>3/1992</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.018</v>
+        <v>42.598</v>
       </c>
       <c r="C28" t="n">
-        <v>23.568</v>
+        <v>22.574</v>
       </c>
       <c r="D28" t="n">
-        <v>23.13480791</v>
+        <v>0.030899059</v>
       </c>
       <c r="E28" t="n">
-        <v>1.883463556</v>
+        <v>1.987937874</v>
       </c>
       <c r="F28" t="n">
-        <v>0.75941201</v>
+        <v>0.668534425</v>
       </c>
       <c r="G28" t="n">
-        <v>26.37</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/2006</t>
+          <t>4/1992</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.98</v>
+        <v>43.257</v>
       </c>
       <c r="C29" t="n">
-        <v>24.526</v>
+        <v>24.177</v>
       </c>
       <c r="D29" t="n">
-        <v>4.058076132</v>
+        <v>111.5369736</v>
       </c>
       <c r="E29" t="n">
-        <v>2.002266537</v>
+        <v>2.006076684</v>
       </c>
       <c r="F29" t="n">
-        <v>0.756382394</v>
+        <v>0.937980038</v>
       </c>
       <c r="G29" t="n">
-        <v>26.28</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5/2006</t>
+          <t>5/1992</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40.186</v>
+        <v>35.566</v>
       </c>
       <c r="C30" t="n">
-        <v>25.028</v>
+        <v>25.181</v>
       </c>
       <c r="D30" t="n">
-        <v>71.66695679999999</v>
+        <v>69.92283755</v>
       </c>
       <c r="E30" t="n">
-        <v>2.551903068</v>
+        <v>1.912780344</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9652257990000001</v>
+        <v>0.961395092</v>
       </c>
       <c r="G30" t="n">
-        <v>25.47</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6/2006</t>
+          <t>6/1992</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.15</v>
+        <v>34.736</v>
       </c>
       <c r="C31" t="n">
-        <v>23.698</v>
+        <v>23.657</v>
       </c>
       <c r="D31" t="n">
-        <v>76.6485216</v>
+        <v>70.73478</v>
       </c>
       <c r="E31" t="n">
-        <v>1.808690299</v>
+        <v>2.920352094</v>
       </c>
       <c r="F31" t="n">
-        <v>0.964298985</v>
+        <v>0.964939658</v>
       </c>
       <c r="G31" t="n">
-        <v>25.5</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7/2006</t>
+          <t>7/1992</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.811</v>
+        <v>29.19</v>
       </c>
       <c r="C32" t="n">
-        <v>23.332</v>
+        <v>23.311</v>
       </c>
       <c r="D32" t="n">
-        <v>32.37875136</v>
+        <v>96.61101840000001</v>
       </c>
       <c r="E32" t="n">
-        <v>2.870499673</v>
+        <v>2.827199185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.972226183</v>
+        <v>0.973394589</v>
       </c>
       <c r="G32" t="n">
-        <v>25.23</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8/2006</t>
+          <t>8/1992</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.08</v>
+        <v>29.443</v>
       </c>
       <c r="C33" t="n">
-        <v>23.348</v>
+        <v>22.629</v>
       </c>
       <c r="D33" t="n">
-        <v>42.7453992</v>
+        <v>104.8301701</v>
       </c>
       <c r="E33" t="n">
-        <v>1.845766388</v>
+        <v>2.356420983</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9704750009999999</v>
+        <v>0.972899851</v>
       </c>
       <c r="G33" t="n">
-        <v>25.21</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9/2006</t>
+          <t>9/1992</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.186</v>
+        <v>34.037</v>
       </c>
       <c r="C34" t="n">
-        <v>23.162</v>
+        <v>23.009</v>
       </c>
       <c r="D34" t="n">
-        <v>86.34221496000001</v>
+        <v>163.8645984</v>
       </c>
       <c r="E34" t="n">
-        <v>1.59194986</v>
+        <v>1.886456394</v>
       </c>
       <c r="F34" t="n">
-        <v>0.980369245</v>
+        <v>0.972049158</v>
       </c>
       <c r="G34" t="n">
-        <v>25.05</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10/2006</t>
+          <t>10/1992</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.958</v>
+        <v>34.644</v>
       </c>
       <c r="C35" t="n">
-        <v>23.006</v>
+        <v>22.878</v>
       </c>
       <c r="D35" t="n">
-        <v>37.89937138</v>
+        <v>57.46710888</v>
       </c>
       <c r="E35" t="n">
-        <v>1.647939671</v>
+        <v>1.666984763</v>
       </c>
       <c r="F35" t="n">
-        <v>0.961776117</v>
+        <v>0.975201952</v>
       </c>
       <c r="G35" t="n">
-        <v>24.29</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11/2006</t>
+          <t>11/1992</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.729</v>
+        <v>33.948</v>
       </c>
       <c r="C36" t="n">
-        <v>23.179</v>
+        <v>22.369</v>
       </c>
       <c r="D36" t="n">
-        <v>29.21333821</v>
+        <v>73.83162096</v>
       </c>
       <c r="E36" t="n">
-        <v>2.146654395</v>
+        <v>2.541919195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.969356333</v>
+        <v>0.97975459</v>
       </c>
       <c r="G36" t="n">
-        <v>21.72</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12/2006</t>
+          <t>12/1992</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.188</v>
+        <v>33.79</v>
       </c>
       <c r="C37" t="n">
-        <v>22.606</v>
+        <v>21.918</v>
       </c>
       <c r="D37" t="n">
-        <v>4.73098608</v>
+        <v>1.733777244</v>
       </c>
       <c r="E37" t="n">
-        <v>2.779032343</v>
+        <v>2.987920336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.786916517</v>
+        <v>0.789959681</v>
       </c>
       <c r="G37" t="n">
-        <v>21.64</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/2007</t>
+          <t>1/1993</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38.765</v>
+        <v>38.649</v>
       </c>
       <c r="C38" t="n">
-        <v>24.192</v>
+        <v>22.231</v>
       </c>
       <c r="D38" t="n">
-        <v>0.013732906</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.552981462</v>
+        <v>2.413759343</v>
       </c>
       <c r="F38" t="n">
-        <v>0.622904112</v>
+        <v>0.603808108</v>
       </c>
       <c r="G38" t="n">
-        <v>23.15</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2/2007</t>
+          <t>2/1993</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39.264</v>
+        <v>37.384</v>
       </c>
       <c r="C39" t="n">
-        <v>22.725</v>
+        <v>21.082</v>
       </c>
       <c r="D39" t="n">
-        <v>0.377655235</v>
+        <v>2.96802504</v>
       </c>
       <c r="E39" t="n">
-        <v>2.032569555</v>
+        <v>2.969813463</v>
       </c>
       <c r="F39" t="n">
-        <v>0.655516403</v>
+        <v>0.785567769</v>
       </c>
       <c r="G39" t="n">
-        <v>24.94</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/2007</t>
+          <t>3/1993</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.029</v>
+        <v>40.854</v>
       </c>
       <c r="C40" t="n">
-        <v>23.348</v>
+        <v>23.498</v>
       </c>
       <c r="D40" t="n">
-        <v>2.00500632</v>
+        <v>9.029389204999999</v>
       </c>
       <c r="E40" t="n">
-        <v>1.89360806</v>
+        <v>1.852508353</v>
       </c>
       <c r="F40" t="n">
-        <v>0.724452446</v>
+        <v>0.835456</v>
       </c>
       <c r="G40" t="n">
-        <v>26.53</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4/2007</t>
+          <t>4/1993</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.662</v>
+        <v>39.937</v>
       </c>
       <c r="C41" t="n">
-        <v>25.449</v>
+        <v>24.563</v>
       </c>
       <c r="D41" t="n">
-        <v>22.19367428</v>
+        <v>18.81065268</v>
       </c>
       <c r="E41" t="n">
-        <v>1.924898149</v>
+        <v>1.787213712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.835714837</v>
+        <v>0.827492547</v>
       </c>
       <c r="G41" t="n">
-        <v>26.58</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/2007</t>
+          <t>5/1993</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.733</v>
+        <v>38.024</v>
       </c>
       <c r="C42" t="n">
-        <v>26.544</v>
+        <v>24.814</v>
       </c>
       <c r="D42" t="n">
-        <v>43.48868184</v>
+        <v>56.23797553</v>
       </c>
       <c r="E42" t="n">
-        <v>2.044169454</v>
+        <v>1.98359165</v>
       </c>
       <c r="F42" t="n">
-        <v>0.877332922</v>
+        <v>0.8848506310000001</v>
       </c>
       <c r="G42" t="n">
-        <v>26.1</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6/2007</t>
+          <t>6/1993</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.182</v>
+        <v>34.853</v>
       </c>
       <c r="C43" t="n">
-        <v>25.154</v>
+        <v>24.087</v>
       </c>
       <c r="D43" t="n">
-        <v>115.7547204</v>
+        <v>103.946094</v>
       </c>
       <c r="E43" t="n">
-        <v>2.594874741</v>
+        <v>2.399067142</v>
       </c>
       <c r="F43" t="n">
-        <v>0.972298176</v>
+        <v>0.965361361</v>
       </c>
       <c r="G43" t="n">
-        <v>25.14</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7/2007</t>
+          <t>7/1993</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.064</v>
+        <v>28.698</v>
       </c>
       <c r="C44" t="n">
-        <v>24.002</v>
+        <v>22.884</v>
       </c>
       <c r="D44" t="n">
-        <v>82.80771444</v>
+        <v>40.0005396</v>
       </c>
       <c r="E44" t="n">
-        <v>2.205265021</v>
+        <v>2.820505649</v>
       </c>
       <c r="F44" t="n">
-        <v>0.972805586</v>
+        <v>0.968705522</v>
       </c>
       <c r="G44" t="n">
-        <v>22.46</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8/2007</t>
+          <t>8/1993</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.353</v>
+        <v>28.538</v>
       </c>
       <c r="C45" t="n">
-        <v>23.203</v>
+        <v>22.685</v>
       </c>
       <c r="D45" t="n">
-        <v>62.0933724</v>
+        <v>116.5065396</v>
       </c>
       <c r="E45" t="n">
-        <v>1.851950493</v>
+        <v>2.809810003</v>
       </c>
       <c r="F45" t="n">
-        <v>0.973377576</v>
+        <v>0.974213391</v>
       </c>
       <c r="G45" t="n">
-        <v>25.49</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9/2007</t>
+          <t>9/1993</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.25</v>
+        <v>31.615</v>
       </c>
       <c r="C46" t="n">
-        <v>23.35</v>
+        <v>22.232</v>
       </c>
       <c r="D46" t="n">
-        <v>45.7357284</v>
+        <v>25.52089338</v>
       </c>
       <c r="E46" t="n">
-        <v>1.778836043</v>
+        <v>1.81069782</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9702663540000001</v>
+        <v>0.968329917</v>
       </c>
       <c r="G46" t="n">
-        <v>24.45</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10/2007</t>
+          <t>10/1993</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>34.358</v>
+        <v>35.342</v>
       </c>
       <c r="C47" t="n">
-        <v>23.108</v>
+        <v>22.869</v>
       </c>
       <c r="D47" t="n">
-        <v>70.93048716</v>
+        <v>120.3517919</v>
       </c>
       <c r="E47" t="n">
-        <v>1.522298227</v>
+        <v>1.57877261</v>
       </c>
       <c r="F47" t="n">
-        <v>0.964338619</v>
+        <v>0.969099007</v>
       </c>
       <c r="G47" t="n">
-        <v>24.12</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11/2007</t>
+          <t>11/1993</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>35.664</v>
+        <v>33.77</v>
       </c>
       <c r="C48" t="n">
         <v>22.813</v>
       </c>
       <c r="D48" t="n">
-        <v>12.02487134</v>
+        <v>64.0605956</v>
       </c>
       <c r="E48" t="n">
-        <v>1.769012196</v>
+        <v>2.460205321</v>
       </c>
       <c r="F48" t="n">
-        <v>0.932453985</v>
+        <v>0.94925779</v>
       </c>
       <c r="G48" t="n">
-        <v>22.82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>12/2007</t>
+          <t>12/1993</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>36.931</v>
+        <v>34.097</v>
       </c>
       <c r="C49" t="n">
-        <v>22.911</v>
+        <v>22.102</v>
       </c>
       <c r="D49" t="n">
-        <v>16.15162031</v>
+        <v>57.40359091</v>
       </c>
       <c r="E49" t="n">
-        <v>2.946296802</v>
+        <v>2.577403766</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8606185159999999</v>
+        <v>0.956111321</v>
       </c>
       <c r="G49" t="n">
-        <v>21.64</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2008</t>
+          <t>1/1994</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>38.842</v>
+        <v>35.673</v>
       </c>
       <c r="C50" t="n">
-        <v>22.265</v>
+        <v>21.858</v>
       </c>
       <c r="D50" t="n">
-        <v>2.26593072</v>
+        <v>82.860939</v>
       </c>
       <c r="E50" t="n">
-        <v>2.647186881</v>
+        <v>2.851951723</v>
       </c>
       <c r="F50" t="n">
-        <v>0.727654363</v>
+        <v>0.9474061459999999</v>
       </c>
       <c r="G50" t="n">
-        <v>22.4</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2/2008</t>
+          <t>2/1994</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>40.491</v>
+        <v>39.646</v>
       </c>
       <c r="C51" t="n">
-        <v>23.162</v>
+        <v>22.943</v>
       </c>
       <c r="D51" t="n">
-        <v>9.911721168</v>
+        <v>11.69013918</v>
       </c>
       <c r="E51" t="n">
-        <v>1.923365401</v>
+        <v>1.779585977</v>
       </c>
       <c r="F51" t="n">
-        <v>0.870460622</v>
+        <v>0.913605416</v>
       </c>
       <c r="G51" t="n">
-        <v>25.65</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/2008</t>
+          <t>3/1994</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>41.72</v>
+        <v>41.061</v>
       </c>
       <c r="C52" t="n">
-        <v>23.848</v>
+        <v>23.823</v>
       </c>
       <c r="D52" t="n">
-        <v>78.2243514</v>
+        <v>15.30876089</v>
       </c>
       <c r="E52" t="n">
-        <v>2.23430444</v>
+        <v>1.778612978</v>
       </c>
       <c r="F52" t="n">
-        <v>0.947296036</v>
+        <v>0.808809054</v>
       </c>
       <c r="G52" t="n">
-        <v>26.78</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4/2008</t>
+          <t>4/1994</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>41.766</v>
+        <v>37.54</v>
       </c>
       <c r="C53" t="n">
-        <v>24.224</v>
+        <v>25.477</v>
       </c>
       <c r="D53" t="n">
-        <v>9.836198906</v>
+        <v>116.7761592</v>
       </c>
       <c r="E53" t="n">
-        <v>1.914926447</v>
+        <v>1.496440834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.78597975</v>
+        <v>0.948440183</v>
       </c>
       <c r="G53" t="n">
-        <v>26.52</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5/2008</t>
+          <t>5/1994</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>36.563</v>
+        <v>36.204</v>
       </c>
       <c r="C54" t="n">
-        <v>24.05</v>
+        <v>25.39</v>
       </c>
       <c r="D54" t="n">
-        <v>19.54193965</v>
+        <v>56.32634412</v>
       </c>
       <c r="E54" t="n">
-        <v>1.958207176</v>
+        <v>1.986430877</v>
       </c>
       <c r="F54" t="n">
-        <v>0.939860971</v>
+        <v>0.91971968</v>
       </c>
       <c r="G54" t="n">
-        <v>26.19</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6/2008</t>
+          <t>6/1994</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32.588</v>
+        <v>27.196</v>
       </c>
       <c r="C55" t="n">
-        <v>23.187</v>
+        <v>23.893</v>
       </c>
       <c r="D55" t="n">
-        <v>28.94554512</v>
+        <v>97.8195204</v>
       </c>
       <c r="E55" t="n">
-        <v>1.56042144</v>
+        <v>2.39404969</v>
       </c>
       <c r="F55" t="n">
-        <v>0.948719763</v>
+        <v>0.970079134</v>
       </c>
       <c r="G55" t="n">
-        <v>24.74</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7/2008</t>
+          <t>7/1994</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32.153</v>
+        <v>28.213</v>
       </c>
       <c r="C56" t="n">
-        <v>23.934</v>
+        <v>22.818</v>
       </c>
       <c r="D56" t="n">
-        <v>54.2913444</v>
+        <v>75.2202648</v>
       </c>
       <c r="E56" t="n">
-        <v>1.975511642</v>
+        <v>2.744086164</v>
       </c>
       <c r="F56" t="n">
-        <v>0.964794124</v>
+        <v>0.97409096</v>
       </c>
       <c r="G56" t="n">
-        <v>25.13</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8/2008</t>
+          <t>8/1994</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32.432</v>
+        <v>30.239</v>
       </c>
       <c r="C57" t="n">
-        <v>23.089</v>
+        <v>22.511</v>
       </c>
       <c r="D57" t="n">
-        <v>44.3435976</v>
+        <v>64.8914796</v>
       </c>
       <c r="E57" t="n">
-        <v>1.962455446</v>
+        <v>2.359859179</v>
       </c>
       <c r="F57" t="n">
-        <v>0.966815567</v>
+        <v>0.971012295</v>
       </c>
       <c r="G57" t="n">
-        <v>25.3</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9/2008</t>
+          <t>9/1994</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>32.626</v>
+        <v>32.63</v>
       </c>
       <c r="C58" t="n">
-        <v>22.471</v>
+        <v>22.429</v>
       </c>
       <c r="D58" t="n">
-        <v>23.49701532</v>
+        <v>100.4974721</v>
       </c>
       <c r="E58" t="n">
-        <v>2.15556916</v>
+        <v>2.088228441</v>
       </c>
       <c r="F58" t="n">
-        <v>0.95631734</v>
+        <v>0.964852795</v>
       </c>
       <c r="G58" t="n">
-        <v>25.02</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10/2008</t>
+          <t>10/1994</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37.928</v>
+        <v>32.906</v>
       </c>
       <c r="C59" t="n">
-        <v>23.577</v>
+        <v>22.302</v>
       </c>
       <c r="D59" t="n">
-        <v>47.69271252</v>
+        <v>65.75401397</v>
       </c>
       <c r="E59" t="n">
-        <v>1.790683724</v>
+        <v>1.438660658</v>
       </c>
       <c r="F59" t="n">
-        <v>0.971931593</v>
+        <v>0.9588249049999999</v>
       </c>
       <c r="G59" t="n">
-        <v>24.84</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11/2008</t>
+          <t>11/1994</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>36.867</v>
+        <v>34.879</v>
       </c>
       <c r="C60" t="n">
-        <v>22.862</v>
+        <v>22.222</v>
       </c>
       <c r="D60" t="n">
-        <v>11.44466712</v>
+        <v>64.39531461</v>
       </c>
       <c r="E60" t="n">
-        <v>1.806573586</v>
+        <v>2.497916926</v>
       </c>
       <c r="F60" t="n">
-        <v>0.940428218</v>
+        <v>0.975688602</v>
       </c>
       <c r="G60" t="n">
-        <v>23.47</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12/2008</t>
+          <t>12/1994</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>36.787</v>
+        <v>36.315</v>
       </c>
       <c r="C61" t="n">
-        <v>22.945</v>
+        <v>24.033</v>
       </c>
       <c r="D61" t="n">
-        <v>14.15178603</v>
+        <v>2.67620112</v>
       </c>
       <c r="E61" t="n">
-        <v>2.812924469</v>
+        <v>2.940426324</v>
       </c>
       <c r="F61" t="n">
-        <v>0.827609108</v>
+        <v>0.917431802</v>
       </c>
       <c r="G61" t="n">
-        <v>21.67</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1/2009</t>
+          <t>1/1995</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>38.307</v>
+        <v>37.775</v>
       </c>
       <c r="C62" t="n">
-        <v>21.611</v>
+        <v>22.431</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176811134</v>
+        <v>1.86939378</v>
       </c>
       <c r="E62" t="n">
-        <v>2.788308055</v>
+        <v>2.509474444</v>
       </c>
       <c r="F62" t="n">
-        <v>0.656426015</v>
+        <v>0.753798611</v>
       </c>
       <c r="G62" t="n">
-        <v>23.47</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2/2009</t>
+          <t>2/1995</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>40.629</v>
+        <v>39.693</v>
       </c>
       <c r="C63" t="n">
-        <v>22.006</v>
+        <v>22.804</v>
       </c>
       <c r="D63" t="n">
-        <v>0.072097776</v>
+        <v>3.98597724</v>
       </c>
       <c r="E63" t="n">
-        <v>2.031527288</v>
+        <v>2.404953238</v>
       </c>
       <c r="F63" t="n">
-        <v>0.710771803</v>
+        <v>0.711365463</v>
       </c>
       <c r="G63" t="n">
-        <v>25.67</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3/2009</t>
+          <t>3/1995</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>41.881</v>
+        <v>42.013</v>
       </c>
       <c r="C64" t="n">
-        <v>24.261</v>
+        <v>23.198</v>
       </c>
       <c r="D64" t="n">
-        <v>11.72447496</v>
+        <v>88.60819392000001</v>
       </c>
       <c r="E64" t="n">
-        <v>2.599769456</v>
+        <v>2.028333961</v>
       </c>
       <c r="F64" t="n">
-        <v>0.841138086</v>
+        <v>0.9008268149999999</v>
       </c>
       <c r="G64" t="n">
-        <v>26.42</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4/2009</t>
+          <t>4/1995</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>41.904</v>
+        <v>41.752</v>
       </c>
       <c r="C65" t="n">
-        <v>25.243</v>
+        <v>25.245</v>
       </c>
       <c r="D65" t="n">
-        <v>9.750369131999999</v>
+        <v>17.32405644</v>
       </c>
       <c r="E65" t="n">
-        <v>1.888243628</v>
+        <v>1.832044706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8299293599999999</v>
+        <v>0.838252484</v>
       </c>
       <c r="G65" t="n">
-        <v>26.83</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5/2009</t>
+          <t>5/1995</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>36.95</v>
+        <v>36.507</v>
       </c>
       <c r="C66" t="n">
-        <v>25.169</v>
+        <v>24.788</v>
       </c>
       <c r="D66" t="n">
-        <v>22.73480712</v>
+        <v>147.6081828</v>
       </c>
       <c r="E66" t="n">
-        <v>2.110853138</v>
+        <v>1.904665262</v>
       </c>
       <c r="F66" t="n">
-        <v>0.874526971</v>
+        <v>0.9308415840000001</v>
       </c>
       <c r="G66" t="n">
-        <v>25.87</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6/2009</t>
+          <t>6/1995</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>32.234</v>
+        <v>35.567</v>
       </c>
       <c r="C67" t="n">
-        <v>23.292</v>
+        <v>24.7</v>
       </c>
       <c r="D67" t="n">
-        <v>24.4325628</v>
+        <v>120.5166204</v>
       </c>
       <c r="E67" t="n">
-        <v>1.939085801</v>
+        <v>2.297441686</v>
       </c>
       <c r="F67" t="n">
-        <v>0.957115004</v>
+        <v>0.971140509</v>
       </c>
       <c r="G67" t="n">
-        <v>25.1</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7/2009</t>
+          <t>7/1995</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>29.59</v>
+        <v>28.963</v>
       </c>
       <c r="C68" t="n">
-        <v>23.48</v>
+        <v>22.828</v>
       </c>
       <c r="D68" t="n">
-        <v>45.7039908</v>
+        <v>48.7655928</v>
       </c>
       <c r="E68" t="n">
-        <v>2.255173582</v>
+        <v>2.334397119</v>
       </c>
       <c r="F68" t="n">
-        <v>0.972532896</v>
+        <v>0.969263369</v>
       </c>
       <c r="G68" t="n">
-        <v>23.89</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8/2009</t>
+          <t>8/1995</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>33.479</v>
+        <v>31.146</v>
       </c>
       <c r="C69" t="n">
-        <v>22.804</v>
+        <v>22.894</v>
       </c>
       <c r="D69" t="n">
-        <v>31.7401812</v>
+        <v>52.593606</v>
       </c>
       <c r="E69" t="n">
-        <v>1.608056072</v>
+        <v>2.988263874</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9671606190000001</v>
+        <v>0.96938806</v>
       </c>
       <c r="G69" t="n">
-        <v>24.81</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9/2009</t>
+          <t>9/1995</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>30.854</v>
+        <v>31.335</v>
       </c>
       <c r="C70" t="n">
-        <v>23.742</v>
+        <v>22.877</v>
       </c>
       <c r="D70" t="n">
-        <v>88.16357664</v>
+        <v>58.04901</v>
       </c>
       <c r="E70" t="n">
-        <v>2.510955055</v>
+        <v>3.266820967</v>
       </c>
       <c r="F70" t="n">
-        <v>0.97988496</v>
+        <v>0.972129377</v>
       </c>
       <c r="G70" t="n">
-        <v>24.94</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10/2009</t>
+          <t>10/1995</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>35.428</v>
+        <v>35.9</v>
       </c>
       <c r="C71" t="n">
-        <v>23.557</v>
+        <v>23.523</v>
       </c>
       <c r="D71" t="n">
-        <v>48.295206</v>
+        <v>130.2205374</v>
       </c>
       <c r="E71" t="n">
-        <v>1.702911871</v>
+        <v>1.699427421</v>
       </c>
       <c r="F71" t="n">
-        <v>0.970936029</v>
+        <v>0.978760627</v>
       </c>
       <c r="G71" t="n">
-        <v>24.1</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>11/2009</t>
+          <t>11/1995</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>36.682</v>
+        <v>33.983</v>
       </c>
       <c r="C72" t="n">
-        <v>22.778</v>
+        <v>23.522</v>
       </c>
       <c r="D72" t="n">
-        <v>34.28935883</v>
+        <v>23.92960756</v>
       </c>
       <c r="E72" t="n">
-        <v>2.272382288</v>
+        <v>1.728347827</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9619141879999999</v>
+        <v>0.971679641</v>
       </c>
       <c r="G72" t="n">
-        <v>22.2</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12/2009</t>
+          <t>12/1995</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>36.342</v>
+        <v>36.067</v>
       </c>
       <c r="C73" t="n">
-        <v>23.148</v>
+        <v>20.798</v>
       </c>
       <c r="D73" t="n">
-        <v>9.606172320000001</v>
+        <v>0.017166146</v>
       </c>
       <c r="E73" t="n">
-        <v>2.635224907</v>
+        <v>2.593299318</v>
       </c>
       <c r="F73" t="n">
-        <v>0.882982112</v>
+        <v>0.711832357</v>
       </c>
       <c r="G73" t="n">
-        <v>21.41</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1/2010</t>
+          <t>1/1996</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>38.242</v>
+        <v>38.61</v>
       </c>
       <c r="C74" t="n">
-        <v>22.271</v>
+        <v>21.841</v>
       </c>
       <c r="D74" t="n">
-        <v>3.45382416</v>
+        <v>2.63672208</v>
       </c>
       <c r="E74" t="n">
-        <v>1.922021544</v>
+        <v>2.060227973</v>
       </c>
       <c r="F74" t="n">
-        <v>0.788927693</v>
+        <v>0.784826167</v>
       </c>
       <c r="G74" t="n">
-        <v>22.74</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2/2010</t>
+          <t>2/1996</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>39.894</v>
+        <v>40.538</v>
       </c>
       <c r="C75" t="n">
-        <v>22.987</v>
+        <v>22.831</v>
       </c>
       <c r="D75" t="n">
-        <v>2.956010436</v>
+        <v>9.621615917</v>
       </c>
       <c r="E75" t="n">
-        <v>2.137552922</v>
+        <v>2.127676724</v>
       </c>
       <c r="F75" t="n">
-        <v>0.729107576</v>
+        <v>0.800559202</v>
       </c>
       <c r="G75" t="n">
-        <v>24.83</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3/2010</t>
+          <t>3/1996</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>42.94</v>
+        <v>42.588</v>
       </c>
       <c r="C76" t="n">
-        <v>24.6</v>
+        <v>23.229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.63514782</v>
+        <v>1.744080552</v>
       </c>
       <c r="E76" t="n">
-        <v>1.957357798</v>
+        <v>1.940862862</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7472211600000001</v>
+        <v>0.755498389</v>
       </c>
       <c r="G76" t="n">
-        <v>26.21</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4/2010</t>
+          <t>4/1996</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40.085</v>
+        <v>43.681</v>
       </c>
       <c r="C77" t="n">
-        <v>25.563</v>
+        <v>25.082</v>
       </c>
       <c r="D77" t="n">
-        <v>5.541228</v>
+        <v>26.70536448</v>
       </c>
       <c r="E77" t="n">
-        <v>1.877960491</v>
+        <v>2.06521574</v>
       </c>
       <c r="F77" t="n">
-        <v>0.783572729</v>
+        <v>0.924859859</v>
       </c>
       <c r="G77" t="n">
-        <v>25.95</v>
+        <v>26.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5/2010</t>
+          <t>5/1996</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37.565</v>
+        <v>36.789</v>
       </c>
       <c r="C78" t="n">
-        <v>25.785</v>
+        <v>24.283</v>
       </c>
       <c r="D78" t="n">
-        <v>31.73675292</v>
+        <v>12.48406884</v>
       </c>
       <c r="E78" t="n">
-        <v>1.772254016</v>
+        <v>2.254125101</v>
       </c>
       <c r="F78" t="n">
-        <v>0.904934954</v>
+        <v>0.821792618</v>
       </c>
       <c r="G78" t="n">
-        <v>25.53</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6/2010</t>
+          <t>6/1996</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34.018</v>
+        <v>33.251</v>
       </c>
       <c r="C79" t="n">
-        <v>24.485</v>
+        <v>24.262</v>
       </c>
       <c r="D79" t="n">
-        <v>62.7439392</v>
+        <v>61.4255652</v>
       </c>
       <c r="E79" t="n">
-        <v>2.242809185</v>
+        <v>2.93190629</v>
       </c>
       <c r="F79" t="n">
-        <v>0.965218279</v>
+        <v>0.969545128</v>
       </c>
       <c r="G79" t="n">
-        <v>24.97</v>
+        <v>24.87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7/2010</t>
+          <t>7/1996</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>31.912</v>
+        <v>31.024</v>
       </c>
       <c r="C80" t="n">
-        <v>22.895</v>
+        <v>22.867</v>
       </c>
       <c r="D80" t="n">
-        <v>23.4884232</v>
+        <v>68.32461960000001</v>
       </c>
       <c r="E80" t="n">
-        <v>1.801603733</v>
+        <v>2.683842603</v>
       </c>
       <c r="F80" t="n">
-        <v>0.968048982</v>
+        <v>0.973562575</v>
       </c>
       <c r="G80" t="n">
-        <v>24.92</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8/2010</t>
+          <t>8/1996</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>30.184</v>
+        <v>30.003</v>
       </c>
       <c r="C81" t="n">
-        <v>23.051</v>
+        <v>22.689</v>
       </c>
       <c r="D81" t="n">
-        <v>57.6250056</v>
+        <v>38.70106092</v>
       </c>
       <c r="E81" t="n">
-        <v>1.833973181</v>
+        <v>2.409250156</v>
       </c>
       <c r="F81" t="n">
-        <v>0.970332828</v>
+        <v>0.970765415</v>
       </c>
       <c r="G81" t="n">
-        <v>25.17</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9/2010</t>
+          <t>9/1996</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33.829</v>
+        <v>30.956</v>
       </c>
       <c r="C82" t="n">
-        <v>23.025</v>
+        <v>22.982</v>
       </c>
       <c r="D82" t="n">
-        <v>60.9586506</v>
+        <v>57.3074244</v>
       </c>
       <c r="E82" t="n">
-        <v>1.531015348</v>
+        <v>1.985321328</v>
       </c>
       <c r="F82" t="n">
-        <v>0.963366385</v>
+        <v>0.966853765</v>
       </c>
       <c r="G82" t="n">
-        <v>25.18</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10/2010</t>
+          <t>10/1996</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>32.332</v>
+        <v>32.363</v>
       </c>
       <c r="C83" t="n">
-        <v>23.302</v>
+        <v>22.485</v>
       </c>
       <c r="D83" t="n">
-        <v>21.31691436</v>
+        <v>40.0897854</v>
       </c>
       <c r="E83" t="n">
-        <v>1.485086199</v>
+        <v>2.127316923</v>
       </c>
       <c r="F83" t="n">
-        <v>0.965326898</v>
+        <v>0.95211227</v>
       </c>
       <c r="G83" t="n">
-        <v>23.75</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>11/2010</t>
+          <t>11/1996</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>34.451</v>
+        <v>35.028</v>
       </c>
       <c r="C84" t="n">
-        <v>22.601</v>
+        <v>21.97</v>
       </c>
       <c r="D84" t="n">
-        <v>16.88804892</v>
+        <v>22.64900598</v>
       </c>
       <c r="E84" t="n">
-        <v>1.816610471</v>
+        <v>1.66807644</v>
       </c>
       <c r="F84" t="n">
-        <v>0.956946787</v>
+        <v>0.962564797</v>
       </c>
       <c r="G84" t="n">
-        <v>21.57</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>12/2010</t>
+          <t>12/1996</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>34.375</v>
+        <v>33.663</v>
       </c>
       <c r="C85" t="n">
-        <v>21.964</v>
+        <v>21.243</v>
       </c>
       <c r="D85" t="n">
-        <v>4.562758685</v>
+        <v>21.54007404</v>
       </c>
       <c r="E85" t="n">
-        <v>1.966890728</v>
+        <v>2.568455606</v>
       </c>
       <c r="F85" t="n">
-        <v>0.867026592</v>
+        <v>0.963709425</v>
       </c>
       <c r="G85" t="n">
-        <v>20.97</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1/2011</t>
+          <t>1/1997</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>39.318</v>
+        <v>37.784</v>
       </c>
       <c r="C86" t="n">
-        <v>22.704</v>
+        <v>21.854</v>
       </c>
       <c r="D86" t="n">
-        <v>5.891420376</v>
+        <v>2.41355754</v>
       </c>
       <c r="E86" t="n">
-        <v>1.680711967</v>
+        <v>2.105494191</v>
       </c>
       <c r="F86" t="n">
-        <v>0.761056884</v>
+        <v>0.726485321</v>
       </c>
       <c r="G86" t="n">
-        <v>22.95</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2/2011</t>
+          <t>2/1997</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>38.738</v>
+        <v>38.675</v>
       </c>
       <c r="C87" t="n">
-        <v>23.331</v>
+        <v>20.64</v>
       </c>
       <c r="D87" t="n">
-        <v>12.93124788</v>
+        <v>0.7003782</v>
       </c>
       <c r="E87" t="n">
-        <v>1.969266509</v>
+        <v>1.90412882</v>
       </c>
       <c r="F87" t="n">
-        <v>0.784093353</v>
+        <v>0.694454271</v>
       </c>
       <c r="G87" t="n">
-        <v>24.6</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3/2011</t>
+          <t>3/1997</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>40.782</v>
+        <v>41.002</v>
       </c>
       <c r="C88" t="n">
-        <v>24.029</v>
+        <v>23.899</v>
       </c>
       <c r="D88" t="n">
-        <v>6.402963204</v>
+        <v>12.393954</v>
       </c>
       <c r="E88" t="n">
-        <v>1.97011819</v>
+        <v>2.021225475</v>
       </c>
       <c r="F88" t="n">
-        <v>0.819619326</v>
+        <v>0.825667252</v>
       </c>
       <c r="G88" t="n">
-        <v>27.02</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4/2011</t>
+          <t>4/1997</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>39.547</v>
+        <v>40.247</v>
       </c>
       <c r="C89" t="n">
-        <v>25.038</v>
+        <v>23.763</v>
       </c>
       <c r="D89" t="n">
-        <v>34.92966204</v>
+        <v>10.29968136</v>
       </c>
       <c r="E89" t="n">
-        <v>1.791093598</v>
+        <v>1.947625335</v>
       </c>
       <c r="F89" t="n">
-        <v>0.878484408</v>
+        <v>0.817325612</v>
       </c>
       <c r="G89" t="n">
-        <v>26.32</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5/2011</t>
+          <t>5/1997</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>35.076</v>
+        <v>39.201</v>
       </c>
       <c r="C90" t="n">
-        <v>25.331</v>
+        <v>24.468</v>
       </c>
       <c r="D90" t="n">
-        <v>20.30754208</v>
+        <v>40.41076529</v>
       </c>
       <c r="E90" t="n">
-        <v>2.054681173</v>
+        <v>2.119369894</v>
       </c>
       <c r="F90" t="n">
-        <v>0.884583685</v>
+        <v>0.814096132</v>
       </c>
       <c r="G90" t="n">
-        <v>26.36</v>
+        <v>25.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6/2011</t>
+          <t>6/1997</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>29.941</v>
+        <v>36.125</v>
       </c>
       <c r="C91" t="n">
-        <v>24.911</v>
+        <v>24.411</v>
       </c>
       <c r="D91" t="n">
-        <v>110.9069712</v>
+        <v>45.24480144</v>
       </c>
       <c r="E91" t="n">
-        <v>2.705528855</v>
+        <v>1.983435155</v>
       </c>
       <c r="F91" t="n">
-        <v>0.968953183</v>
+        <v>0.960798415</v>
       </c>
       <c r="G91" t="n">
-        <v>25.14</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7/2011</t>
+          <t>7/1997</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>29.926</v>
+        <v>28.447</v>
       </c>
       <c r="C92" t="n">
-        <v>23.676</v>
+        <v>23.041</v>
       </c>
       <c r="D92" t="n">
-        <v>42.9359436</v>
+        <v>111.614202</v>
       </c>
       <c r="E92" t="n">
-        <v>1.96083732</v>
+        <v>2.387886275</v>
       </c>
       <c r="F92" t="n">
-        <v>0.956947335</v>
+        <v>0.977904642</v>
       </c>
       <c r="G92" t="n">
-        <v>24.32</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8/2011</t>
+          <t>8/1997</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>30.193</v>
+        <v>29.687</v>
       </c>
       <c r="C93" t="n">
-        <v>24.031</v>
+        <v>22.918</v>
       </c>
       <c r="D93" t="n">
-        <v>62.7387552</v>
+        <v>47.01121632</v>
       </c>
       <c r="E93" t="n">
-        <v>1.925447488</v>
+        <v>2.546443036</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9674862869999999</v>
+        <v>0.975074655</v>
       </c>
       <c r="G93" t="n">
-        <v>24.68</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9/2011</t>
+          <t>9/1997</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>31.589</v>
+        <v>31.755</v>
       </c>
       <c r="C94" t="n">
-        <v>23.875</v>
+        <v>21.886</v>
       </c>
       <c r="D94" t="n">
-        <v>73.3337784</v>
+        <v>13.88053667</v>
       </c>
       <c r="E94" t="n">
-        <v>2.112647742</v>
+        <v>1.597852155</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9681583540000001</v>
+        <v>0.936611385</v>
       </c>
       <c r="G94" t="n">
-        <v>24.67</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10/2011</t>
+          <t>10/1997</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>35.184</v>
+        <v>36.125</v>
       </c>
       <c r="C95" t="n">
-        <v>23.194</v>
+        <v>22.867</v>
       </c>
       <c r="D95" t="n">
-        <v>27.86065402</v>
+        <v>21.58813235</v>
       </c>
       <c r="E95" t="n">
-        <v>1.686784991</v>
+        <v>1.51716396</v>
       </c>
       <c r="F95" t="n">
-        <v>0.93804577</v>
+        <v>0.942048405</v>
       </c>
       <c r="G95" t="n">
-        <v>24.55</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>11/2011</t>
+          <t>11/1997</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>35.671</v>
+        <v>34.207</v>
       </c>
       <c r="C96" t="n">
-        <v>23.502</v>
+        <v>22.617</v>
       </c>
       <c r="D96" t="n">
-        <v>11.86180083</v>
+        <v>113.7737567</v>
       </c>
       <c r="E96" t="n">
-        <v>3.266465773</v>
+        <v>1.941843876</v>
       </c>
       <c r="F96" t="n">
-        <v>0.895667281</v>
+        <v>0.9746837820000001</v>
       </c>
       <c r="G96" t="n">
-        <v>22.86</v>
+        <v>21.98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>12/2011</t>
+          <t>12/1997</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37.177</v>
+        <v>34.432</v>
       </c>
       <c r="C97" t="n">
-        <v>22.951</v>
+        <v>22.501</v>
       </c>
       <c r="D97" t="n">
-        <v>3.225513582</v>
+        <v>76.85792698</v>
       </c>
       <c r="E97" t="n">
-        <v>2.572921476</v>
+        <v>2.320220862</v>
       </c>
       <c r="F97" t="n">
-        <v>0.835931962</v>
+        <v>0.954280313</v>
       </c>
       <c r="G97" t="n">
-        <v>21.46</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1/2012</t>
+          <t>1/1998</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>38.72</v>
+        <v>38.046</v>
       </c>
       <c r="C98" t="n">
-        <v>23.112</v>
+        <v>23.586</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5699155460000001</v>
+        <v>9.278294197999999</v>
       </c>
       <c r="E98" t="n">
-        <v>2.135441591</v>
+        <v>2.956195511</v>
       </c>
       <c r="F98" t="n">
-        <v>0.710209989</v>
+        <v>0.843694329</v>
       </c>
       <c r="G98" t="n">
-        <v>22.72</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2/2012</t>
+          <t>2/1998</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>41.148</v>
+        <v>38.612</v>
       </c>
       <c r="C99" t="n">
-        <v>22.482</v>
+        <v>23.208</v>
       </c>
       <c r="D99" t="n">
-        <v>2.24018172</v>
+        <v>1.108932156</v>
       </c>
       <c r="E99" t="n">
-        <v>1.963397425</v>
+        <v>2.097915617</v>
       </c>
       <c r="F99" t="n">
-        <v>0.743086225</v>
+        <v>0.711886322</v>
       </c>
       <c r="G99" t="n">
-        <v>25.52</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3/2012</t>
+          <t>3/1998</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>41.166</v>
+        <v>40.349</v>
       </c>
       <c r="C100" t="n">
-        <v>24.517</v>
+        <v>23.803</v>
       </c>
       <c r="D100" t="n">
-        <v>20.63369808</v>
+        <v>7.64064468</v>
       </c>
       <c r="E100" t="n">
-        <v>2.424014295</v>
+        <v>2.10994668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.776640789</v>
+        <v>0.78747446</v>
       </c>
       <c r="G100" t="n">
-        <v>27.03</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4/2012</t>
+          <t>4/1998</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>38.214</v>
+        <v>41.7</v>
       </c>
       <c r="C101" t="n">
-        <v>26.087</v>
+        <v>25.685</v>
       </c>
       <c r="D101" t="n">
-        <v>35.86861692</v>
+        <v>13.83933967</v>
       </c>
       <c r="E101" t="n">
-        <v>1.86293061</v>
+        <v>1.860757315</v>
       </c>
       <c r="F101" t="n">
-        <v>0.887666072</v>
+        <v>0.810511195</v>
       </c>
       <c r="G101" t="n">
-        <v>26.04</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5/2012</t>
+          <t>5/1998</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35.298</v>
+        <v>41.624</v>
       </c>
       <c r="C102" t="n">
-        <v>25.84</v>
+        <v>25.488</v>
       </c>
       <c r="D102" t="n">
-        <v>22.24216582</v>
+        <v>35.20431468</v>
       </c>
       <c r="E102" t="n">
-        <v>2.290522228</v>
+        <v>2.041025014</v>
       </c>
       <c r="F102" t="n">
-        <v>0.879813027</v>
+        <v>0.910881848</v>
       </c>
       <c r="G102" t="n">
-        <v>25.93</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6/2012</t>
+          <t>6/1998</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>33.46</v>
+        <v>34.004</v>
       </c>
       <c r="C103" t="n">
-        <v>24.321</v>
+        <v>24.797</v>
       </c>
       <c r="D103" t="n">
-        <v>74.06498879999999</v>
+        <v>78.2544204</v>
       </c>
       <c r="E103" t="n">
-        <v>2.105157271</v>
+        <v>2.553710394</v>
       </c>
       <c r="F103" t="n">
-        <v>0.958390533</v>
+        <v>0.97145888</v>
       </c>
       <c r="G103" t="n">
-        <v>25.04</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7/2012</t>
+          <t>7/1998</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>29.63</v>
+        <v>30.421</v>
       </c>
       <c r="C104" t="n">
-        <v>23.525</v>
+        <v>23.237</v>
       </c>
       <c r="D104" t="n">
-        <v>32.9795856</v>
+        <v>111.0923482</v>
       </c>
       <c r="E104" t="n">
-        <v>1.995069712</v>
+        <v>2.136807968</v>
       </c>
       <c r="F104" t="n">
-        <v>0.961872616</v>
+        <v>0.976869927</v>
       </c>
       <c r="G104" t="n">
-        <v>24.52</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8/2012</t>
+          <t>8/1998</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>31.354</v>
+        <v>31.656</v>
       </c>
       <c r="C105" t="n">
-        <v>23.703</v>
+        <v>23.039</v>
       </c>
       <c r="D105" t="n">
-        <v>58.7630808</v>
+        <v>49.83501348</v>
       </c>
       <c r="E105" t="n">
-        <v>2.31060219</v>
+        <v>1.742245729</v>
       </c>
       <c r="F105" t="n">
-        <v>0.965293426</v>
+        <v>0.966196507</v>
       </c>
       <c r="G105" t="n">
-        <v>25.11</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9/2012</t>
+          <t>9/1998</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>31.74</v>
+        <v>30.335</v>
       </c>
       <c r="C106" t="n">
-        <v>23.717</v>
+        <v>22.899</v>
       </c>
       <c r="D106" t="n">
-        <v>62.237529</v>
+        <v>40.55327856</v>
       </c>
       <c r="E106" t="n">
-        <v>1.785683464</v>
+        <v>1.796160902</v>
       </c>
       <c r="F106" t="n">
-        <v>0.961994807</v>
+        <v>0.969214058</v>
       </c>
       <c r="G106" t="n">
-        <v>24.91</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>10/2012</t>
+          <t>10/1998</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>35.018</v>
+        <v>33.833</v>
       </c>
       <c r="C107" t="n">
-        <v>23.587</v>
+        <v>23.438</v>
       </c>
       <c r="D107" t="n">
-        <v>46.4069052</v>
+        <v>56.6044992</v>
       </c>
       <c r="E107" t="n">
-        <v>1.598457713</v>
+        <v>1.56675172</v>
       </c>
       <c r="F107" t="n">
-        <v>0.938386048</v>
+        <v>0.975971107</v>
       </c>
       <c r="G107" t="n">
-        <v>24.35</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>11/2012</t>
+          <t>11/1998</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>35.931</v>
+        <v>34.638</v>
       </c>
       <c r="C108" t="n">
-        <v>23.572</v>
+        <v>23.108</v>
       </c>
       <c r="D108" t="n">
-        <v>20.75042552</v>
+        <v>26.55774504</v>
       </c>
       <c r="E108" t="n">
-        <v>1.76014304</v>
+        <v>1.530060594</v>
       </c>
       <c r="F108" t="n">
-        <v>0.962544407</v>
+        <v>0.9332199</v>
       </c>
       <c r="G108" t="n">
-        <v>22.51</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>12/2012</t>
+          <t>12/1998</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>38.591</v>
+        <v>36.191</v>
       </c>
       <c r="C109" t="n">
-        <v>23.476</v>
+        <v>22.558</v>
       </c>
       <c r="D109" t="n">
-        <v>8.267212799999999</v>
+        <v>21.1349484</v>
       </c>
       <c r="E109" t="n">
-        <v>2.086768747</v>
+        <v>2.495325335</v>
       </c>
       <c r="F109" t="n">
-        <v>0.790360296</v>
+        <v>0.902004115</v>
       </c>
       <c r="G109" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1/2013</t>
+          <t>2/1999</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>38.189</v>
+        <v>40.494</v>
       </c>
       <c r="C110" t="n">
-        <v>23.305</v>
+        <v>23.856</v>
       </c>
       <c r="D110" t="n">
-        <v>2.017017842</v>
+        <v>2.283097356</v>
       </c>
       <c r="E110" t="n">
-        <v>1.920788475</v>
+        <v>3.101252059</v>
       </c>
       <c r="F110" t="n">
-        <v>0.739145717</v>
+        <v>0.709245131</v>
       </c>
       <c r="G110" t="n">
-        <v>23.1</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2/2013</t>
+          <t>3/1999</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>40.274</v>
+        <v>41.199</v>
       </c>
       <c r="C111" t="n">
-        <v>24.413</v>
+        <v>24.006</v>
       </c>
       <c r="D111" t="n">
-        <v>3.464127</v>
+        <v>1.89857268</v>
       </c>
       <c r="E111" t="n">
-        <v>2.29267399</v>
+        <v>1.967844819</v>
       </c>
       <c r="F111" t="n">
-        <v>0.762330103</v>
+        <v>0.756633882</v>
       </c>
       <c r="G111" t="n">
-        <v>25.89</v>
+        <v>25.97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3/2013</t>
+          <t>4/1999</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>40.491</v>
+        <v>40.565</v>
       </c>
       <c r="C112" t="n">
-        <v>26.279</v>
+        <v>25.771</v>
       </c>
       <c r="D112" t="n">
-        <v>9.510041771999999</v>
+        <v>14.8624416</v>
       </c>
       <c r="E112" t="n">
-        <v>1.913847658</v>
+        <v>2.145912022</v>
       </c>
       <c r="F112" t="n">
-        <v>0.793102858</v>
+        <v>0.810139806</v>
       </c>
       <c r="G112" t="n">
-        <v>26.21</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4/2013</t>
+          <t>5/1999</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>39.274</v>
+        <v>34.727</v>
       </c>
       <c r="C113" t="n">
-        <v>25.439</v>
+        <v>24.565</v>
       </c>
       <c r="D113" t="n">
-        <v>13.9560705</v>
+        <v>37.68310872</v>
       </c>
       <c r="E113" t="n">
-        <v>2.196207449</v>
+        <v>1.790211302</v>
       </c>
       <c r="F113" t="n">
-        <v>0.814049639</v>
+        <v>0.954477243</v>
       </c>
       <c r="G113" t="n">
-        <v>26.39</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5/2013</t>
+          <t>6/1999</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>36.446</v>
+        <v>30.923</v>
       </c>
       <c r="C114" t="n">
-        <v>25.595</v>
+        <v>22.918</v>
       </c>
       <c r="D114" t="n">
-        <v>17.17643536</v>
+        <v>38.7199368</v>
       </c>
       <c r="E114" t="n">
-        <v>1.996790607</v>
+        <v>2.01098969</v>
       </c>
       <c r="F114" t="n">
-        <v>0.881071401</v>
+        <v>0.964839162</v>
       </c>
       <c r="G114" t="n">
-        <v>25.72</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6/2013</t>
+          <t>7/1999</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>31.945</v>
+        <v>29.282</v>
       </c>
       <c r="C115" t="n">
-        <v>23.936</v>
+        <v>22.884</v>
       </c>
       <c r="D115" t="n">
-        <v>38.2641768</v>
+        <v>53.33176008</v>
       </c>
       <c r="E115" t="n">
-        <v>2.58144995</v>
+        <v>2.000903328</v>
       </c>
       <c r="F115" t="n">
-        <v>0.955282645</v>
+        <v>0.973255298</v>
       </c>
       <c r="G115" t="n">
-        <v>22.91</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7/2013</t>
+          <t>8/1999</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>28.974</v>
+        <v>30.355</v>
       </c>
       <c r="C116" t="n">
-        <v>23.475</v>
+        <v>22.509</v>
       </c>
       <c r="D116" t="n">
-        <v>50.7242232</v>
+        <v>89.2673496</v>
       </c>
       <c r="E116" t="n">
-        <v>2.605774987</v>
+        <v>1.684922239</v>
       </c>
       <c r="F116" t="n">
-        <v>0.967502813</v>
+        <v>0.972984873</v>
       </c>
       <c r="G116" t="n">
-        <v>23.1</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>8/2013</t>
+          <t>9/1999</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>32.733</v>
+        <v>35.461</v>
       </c>
       <c r="C117" t="n">
-        <v>23.331</v>
+        <v>22.082</v>
       </c>
       <c r="D117" t="n">
-        <v>39.2812704</v>
+        <v>8.456047135</v>
       </c>
       <c r="E117" t="n">
-        <v>2.820814883</v>
+        <v>1.903969895</v>
       </c>
       <c r="F117" t="n">
-        <v>0.963886479</v>
+        <v>0.915188173</v>
       </c>
       <c r="G117" t="n">
-        <v>25.07</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9/2013</t>
+          <t>10/1999</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>33.517</v>
+        <v>32.305</v>
       </c>
       <c r="C118" t="n">
-        <v>23.901</v>
+        <v>23.129</v>
       </c>
       <c r="D118" t="n">
-        <v>73.14841439999999</v>
+        <v>87.89236164</v>
       </c>
       <c r="E118" t="n">
-        <v>1.97040899</v>
+        <v>1.671155142</v>
       </c>
       <c r="F118" t="n">
-        <v>0.970291824</v>
+        <v>0.978602598</v>
       </c>
       <c r="G118" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10/2013</t>
+          <t>11/1999</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>33.857</v>
+        <v>35.39</v>
       </c>
       <c r="C119" t="n">
-        <v>23.494</v>
+        <v>23.165</v>
       </c>
       <c r="D119" t="n">
-        <v>19.99511424</v>
+        <v>13.66253003</v>
       </c>
       <c r="E119" t="n">
-        <v>1.523633898</v>
+        <v>2.098849109</v>
       </c>
       <c r="F119" t="n">
-        <v>0.959288439</v>
+        <v>0.958243468</v>
       </c>
       <c r="G119" t="n">
-        <v>24.52</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>11/2013</t>
+          <t>12/1999</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>35.664</v>
+        <v>35.343</v>
       </c>
       <c r="C120" t="n">
-        <v>22.587</v>
+        <v>22.491</v>
       </c>
       <c r="D120" t="n">
-        <v>10.16921916</v>
+        <v>1.040267966</v>
       </c>
       <c r="E120" t="n">
-        <v>1.510988543</v>
+        <v>2.572303909</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8845975700000001</v>
+        <v>0.7883031069999999</v>
       </c>
       <c r="G120" t="n">
-        <v>22.22</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>12/2013</t>
+          <t>1/2000</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>37.005</v>
+        <v>38.493</v>
       </c>
       <c r="C121" t="n">
-        <v>22.496</v>
+        <v>22.53</v>
       </c>
       <c r="D121" t="n">
-        <v>2.614401018</v>
+        <v>2.04620724</v>
       </c>
       <c r="E121" t="n">
-        <v>2.258580495</v>
+        <v>2.375769589</v>
       </c>
       <c r="F121" t="n">
-        <v>0.805048243</v>
+        <v>0.7440426020000001</v>
       </c>
       <c r="G121" t="n">
-        <v>21.25</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1/2014</t>
+          <t>2/2000</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>38.006</v>
+        <v>38.863</v>
       </c>
       <c r="C122" t="n">
-        <v>22.921</v>
+        <v>23.179</v>
       </c>
       <c r="D122" t="n">
-        <v>3.041841852</v>
+        <v>5.60989044</v>
       </c>
       <c r="E122" t="n">
-        <v>2.543553375</v>
+        <v>1.999155359</v>
       </c>
       <c r="F122" t="n">
-        <v>0.643461018</v>
+        <v>0.819811281</v>
       </c>
       <c r="G122" t="n">
-        <v>22.74</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2/2014</t>
+          <t>3/2000</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>39.067</v>
+        <v>42.624</v>
       </c>
       <c r="C123" t="n">
-        <v>23.443</v>
+        <v>23.878</v>
       </c>
       <c r="D123" t="n">
-        <v>2.725981891</v>
+        <v>1.97410374</v>
       </c>
       <c r="E123" t="n">
-        <v>1.987510712</v>
+        <v>1.841337294</v>
       </c>
       <c r="F123" t="n">
-        <v>0.742503299</v>
+        <v>0.7552048730000001</v>
       </c>
       <c r="G123" t="n">
-        <v>24.64</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3/2014</t>
+          <t>4/2000</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>42.628</v>
+        <v>40.81</v>
       </c>
       <c r="C124" t="n">
-        <v>23.693</v>
+        <v>24.751</v>
       </c>
       <c r="D124" t="n">
-        <v>3.25469772</v>
+        <v>12.30125508</v>
       </c>
       <c r="E124" t="n">
-        <v>2.076884555</v>
+        <v>2.042871357</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7307899410000001</v>
+        <v>0.806190588</v>
       </c>
       <c r="G124" t="n">
-        <v>26.99</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4/2014</t>
+          <t>5/2000</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>40.383</v>
+        <v>37.198</v>
       </c>
       <c r="C125" t="n">
-        <v>25.713</v>
+        <v>24.523</v>
       </c>
       <c r="D125" t="n">
-        <v>10.98975924</v>
+        <v>41.2639596</v>
       </c>
       <c r="E125" t="n">
-        <v>2.010227253</v>
+        <v>2.166860571</v>
       </c>
       <c r="F125" t="n">
-        <v>0.796330977</v>
+        <v>0.918892375</v>
       </c>
       <c r="G125" t="n">
-        <v>26.04</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5/2014</t>
+          <t>6/2000</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>39.476</v>
+        <v>30.31</v>
       </c>
       <c r="C126" t="n">
-        <v>25.709</v>
+        <v>23.591</v>
       </c>
       <c r="D126" t="n">
-        <v>51.6271464</v>
+        <v>82.3356828</v>
       </c>
       <c r="E126" t="n">
-        <v>2.536994021</v>
+        <v>2.666456433</v>
       </c>
       <c r="F126" t="n">
-        <v>0.945852597</v>
+        <v>0.967617513</v>
       </c>
       <c r="G126" t="n">
-        <v>25.75</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6/2014</t>
+          <t>7/2000</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>32.713</v>
+        <v>30.994</v>
       </c>
       <c r="C127" t="n">
-        <v>25.39</v>
+        <v>22.619</v>
       </c>
       <c r="D127" t="n">
-        <v>30.892176</v>
+        <v>42.8655636</v>
       </c>
       <c r="E127" t="n">
-        <v>2.196879073</v>
+        <v>2.361044536</v>
       </c>
       <c r="F127" t="n">
-        <v>0.954914325</v>
+        <v>0.96545699</v>
       </c>
       <c r="G127" t="n">
-        <v>24.77</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>8/2000</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>33.249</v>
+      </c>
+      <c r="C128" t="n">
+        <v>22.751</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39.436632</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.873879188</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.970023011</v>
+      </c>
+      <c r="G128" t="n">
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>9/2000</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>33.857</v>
+      </c>
+      <c r="C129" t="n">
+        <v>23.055</v>
+      </c>
+      <c r="D129" t="n">
+        <v>53.33175324</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.712266536</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.96742955</v>
+      </c>
+      <c r="G129" t="n">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>10/2000</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>35.539</v>
+      </c>
+      <c r="C130" t="n">
+        <v>22.429</v>
+      </c>
+      <c r="D130" t="n">
+        <v>78.67414296</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.609671049</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9656828</v>
+      </c>
+      <c r="G130" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>11/2000</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>36.794</v>
+      </c>
+      <c r="C131" t="n">
+        <v>22.582</v>
+      </c>
+      <c r="D131" t="n">
+        <v>85.69769515</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.205769255</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.957943202</v>
+      </c>
+      <c r="G131" t="n">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>12/2000</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>37.897</v>
+      </c>
+      <c r="C132" t="n">
+        <v>21.945</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.503460688</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.603936941</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.833933562</v>
+      </c>
+      <c r="G132" t="n">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1/2001</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>39.207</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.431</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.190174448</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.704368062</v>
+      </c>
+      <c r="G133" t="n">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2/2001</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>40.237</v>
+      </c>
+      <c r="C134" t="n">
+        <v>22.394</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.1273808</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.975172263</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.757305296</v>
+      </c>
+      <c r="G134" t="n">
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3/2001</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>40.475</v>
+      </c>
+      <c r="C135" t="n">
+        <v>23.139</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.83427408</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.984339872</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.72738322</v>
+      </c>
+      <c r="G135" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4/2001</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>39.469</v>
+      </c>
+      <c r="C136" t="n">
+        <v>24.394</v>
+      </c>
+      <c r="D136" t="n">
+        <v>46.4515794</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.631222822</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.927392907</v>
+      </c>
+      <c r="G136" t="n">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>5/2001</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>38.196</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30.6913392</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.034159474</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.949720079</v>
+      </c>
+      <c r="G137" t="n">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>6/2001</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>32.286</v>
+      </c>
+      <c r="C138" t="n">
+        <v>23.277</v>
+      </c>
+      <c r="D138" t="n">
+        <v>54.6389568</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.021928603</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.961693404</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/2001</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>29.588</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22.934</v>
+      </c>
+      <c r="D139" t="n">
+        <v>36.64281276</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.224566796</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.968135185</v>
+      </c>
+      <c r="G139" t="n">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>8/2001</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>30.156</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.974</v>
+      </c>
+      <c r="D140" t="n">
+        <v>55.21836744</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.064646244</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.974138836</v>
+      </c>
+      <c r="G140" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>9/2001</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="C141" t="n">
+        <v>23.371</v>
+      </c>
+      <c r="D141" t="n">
+        <v>66.91360356</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.34827992</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9730258000000001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>10/2001</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>35.797</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.238</v>
+      </c>
+      <c r="D142" t="n">
+        <v>87.4864044</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.497277055</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.97514036</v>
+      </c>
+      <c r="G142" t="n">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>11/2001</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>34.848</v>
+      </c>
+      <c r="C143" t="n">
+        <v>23.363</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28.67428994</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.59779711</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.965206882</v>
+      </c>
+      <c r="G143" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>12/2001</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>36.854</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22.755</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.6337784</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.119642055</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.786971834</v>
+      </c>
+      <c r="G144" t="n">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1/2002</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>38.181</v>
+      </c>
+      <c r="C145" t="n">
+        <v>23.277</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.92010528</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.611086613</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.744683022</v>
+      </c>
+      <c r="G145" t="n">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2/2002</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>41.881</v>
+      </c>
+      <c r="C146" t="n">
+        <v>23.493</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.3996824</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.733196691</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.784476756</v>
+      </c>
+      <c r="G146" t="n">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3/2002</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>42.214</v>
+      </c>
+      <c r="C147" t="n">
+        <v>24.571</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.61440496</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.888061205</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.733316856</v>
+      </c>
+      <c r="G147" t="n">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>4/2002</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>39.147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.11615104</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.861262313</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.853203219</v>
+      </c>
+      <c r="G148" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>5/2002</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>45.503</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25.895</v>
+      </c>
+      <c r="D149" t="n">
+        <v>38.0882196</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.550476902</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.948430268</v>
+      </c>
+      <c r="G149" t="n">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>6/2002</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>31.365</v>
+      </c>
+      <c r="C150" t="n">
+        <v>23.889</v>
+      </c>
+      <c r="D150" t="n">
+        <v>49.1964336</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.265298704</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9545550900000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7/2002</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>30.357</v>
+      </c>
+      <c r="C151" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D151" t="n">
+        <v>31.35565836</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.204465967</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.94985951</v>
+      </c>
+      <c r="G151" t="n">
+        <v>24.76</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8/2002</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>31.465</v>
+      </c>
+      <c r="C152" t="n">
+        <v>23.017</v>
+      </c>
+      <c r="D152" t="n">
+        <v>48.0960828</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.197752641</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.968934646</v>
+      </c>
+      <c r="G152" t="n">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>9/2002</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>34.515</v>
+      </c>
+      <c r="C153" t="n">
+        <v>22.917</v>
+      </c>
+      <c r="D153" t="n">
+        <v>34.60351104</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.559494685</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.963605292</v>
+      </c>
+      <c r="G153" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>10/2002</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>35.605</v>
+      </c>
+      <c r="C154" t="n">
+        <v>23.281</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.87702328</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.548613469</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.966949645</v>
+      </c>
+      <c r="G154" t="n">
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>11/2002</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>36.303</v>
+      </c>
+      <c r="C155" t="n">
+        <v>22.997</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23.03695703</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.265671647</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.904254226</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12/2002</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>36.358</v>
+      </c>
+      <c r="C156" t="n">
+        <v>23.113</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.103202028</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.412296344</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.804819688</v>
+      </c>
+      <c r="G156" t="n">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1/2003</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>39.107</v>
+      </c>
+      <c r="C157" t="n">
+        <v>22.994</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.184463626</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.045563816</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.655328875</v>
+      </c>
+      <c r="G157" t="n">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2/2003</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>40.758</v>
+      </c>
+      <c r="C158" t="n">
+        <v>23.076</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.083967568</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.808907934</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.773855485</v>
+      </c>
+      <c r="G158" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3/2003</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>42.521</v>
+      </c>
+      <c r="C159" t="n">
+        <v>23.732</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.88955552</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.944222035</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.802795347</v>
+      </c>
+      <c r="G159" t="n">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4/2003</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>43.505</v>
+      </c>
+      <c r="C160" t="n">
+        <v>25.943</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.80715728</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.959628905</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.790846631</v>
+      </c>
+      <c r="G160" t="n">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>5/2003</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>39.776</v>
+      </c>
+      <c r="C161" t="n">
+        <v>25.315</v>
+      </c>
+      <c r="D161" t="n">
+        <v>78.93503459999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.237986153</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.954586087</v>
+      </c>
+      <c r="G161" t="n">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>6/2003</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>36.799</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.193</v>
+      </c>
+      <c r="D162" t="n">
+        <v>75.25638360000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.188346938</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.971470088</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>7/2003</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>29.907</v>
+      </c>
+      <c r="C163" t="n">
+        <v>23.245</v>
+      </c>
+      <c r="D163" t="n">
+        <v>42.3351558</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.745933781</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9660130139999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8/2003</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>30.905</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.907</v>
+      </c>
+      <c r="D164" t="n">
+        <v>41.37039036</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.212675223</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.967783623</v>
+      </c>
+      <c r="G164" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>9/2003</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>34.329</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.835</v>
+      </c>
+      <c r="D165" t="n">
+        <v>23.12278614</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.739795188</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.955604428</v>
+      </c>
+      <c r="G165" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>10/2003</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C166" t="n">
+        <v>23.623</v>
+      </c>
+      <c r="D166" t="n">
+        <v>70.09104240000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.468278411</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.965228296</v>
+      </c>
+      <c r="G166" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>11/2003</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>36.192</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.883</v>
+      </c>
+      <c r="D167" t="n">
+        <v>40.57041528</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.111229848</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.966947472</v>
+      </c>
+      <c r="G167" t="n">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>12/2003</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>36.395</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.747</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.351906048</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.31340692</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.71748178</v>
+      </c>
+      <c r="G168" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1/2004</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>38.389</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22.454</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.191330432</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.944691924</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.749948504</v>
+      </c>
+      <c r="G169" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2/2004</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>42.037</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.436</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.28839096</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.055876544</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.7251399630000001</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3/2004</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>44.635</v>
+      </c>
+      <c r="C171" t="n">
+        <v>23.888</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7.257840372</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.90584327</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.782248976</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>4/2004</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>38.385</v>
+      </c>
+      <c r="C172" t="n">
+        <v>25.465</v>
+      </c>
+      <c r="D172" t="n">
+        <v>14.87273616</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.707036274</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.911584091</v>
+      </c>
+      <c r="G172" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>5/2004</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>41.187</v>
+      </c>
+      <c r="C173" t="n">
+        <v>24.252</v>
+      </c>
+      <c r="D173" t="n">
+        <v>65.59866724</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.636116456</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.967675577</v>
+      </c>
+      <c r="G173" t="n">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>6/2004</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="C174" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D174" t="n">
+        <v>50.2058088</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.333497136</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.964798921</v>
+      </c>
+      <c r="G174" t="n">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>7/2004</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>30.214</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.631</v>
+      </c>
+      <c r="D175" t="n">
+        <v>17.35839449</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.006585109</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.944914576</v>
+      </c>
+      <c r="G175" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>8/2004</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.917</v>
+      </c>
+      <c r="D176" t="n">
+        <v>42.4089432</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.416856199</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.9665038030000001</v>
+      </c>
+      <c r="G176" t="n">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>9/2004</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>32.865</v>
+      </c>
+      <c r="C177" t="n">
+        <v>23.119</v>
+      </c>
+      <c r="D177" t="n">
+        <v>94.92531443999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.846715366</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.933173805</v>
+      </c>
+      <c r="G177" t="n">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>10/2004</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>33.876</v>
+      </c>
+      <c r="C178" t="n">
+        <v>23.011</v>
+      </c>
+      <c r="D178" t="n">
+        <v>60.69082203</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.954110208</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.967632377</v>
+      </c>
+      <c r="G178" t="n">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>11/2004</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>35.502</v>
+      </c>
+      <c r="C179" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D179" t="n">
+        <v>24.40166785</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.576682253</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.903887532</v>
+      </c>
+      <c r="G179" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>12/2004</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>37.544</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23.479</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.027465833</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.505681389</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.689754635</v>
+      </c>
+      <c r="G180" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1/2005</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>38.561</v>
+      </c>
+      <c r="C181" t="n">
+        <v>23.251</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.22473106</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.371477931</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.863024388</v>
+      </c>
+      <c r="G181" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2/2005</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>41.733</v>
+      </c>
+      <c r="C182" t="n">
+        <v>24.296</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.377654904</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.737479945</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.7190066470000001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>3/2005</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="C183" t="n">
+        <v>23.786</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.973175164</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.063574506</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.731292078</v>
+      </c>
+      <c r="G183" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>4/2005</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>40.428</v>
+      </c>
+      <c r="C184" t="n">
+        <v>25.409</v>
+      </c>
+      <c r="D184" t="n">
+        <v>45.98811378</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.80522223</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.896800169</v>
+      </c>
+      <c r="G184" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>5/2005</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25.344</v>
+      </c>
+      <c r="D185" t="n">
+        <v>83.59392132000001</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.938844308</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.938070443</v>
+      </c>
+      <c r="G185" t="n">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>6/2005</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>33.804</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25.389</v>
+      </c>
+      <c r="D186" t="n">
+        <v>53.04850452</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.685137631</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.965921502</v>
+      </c>
+      <c r="G186" t="n">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>7/2005</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>29.882</v>
+      </c>
+      <c r="C187" t="n">
+        <v>23.071</v>
+      </c>
+      <c r="D187" t="n">
+        <v>89.18149768000001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.726020081</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.973267491</v>
+      </c>
+      <c r="G187" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>8/2005</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="C188" t="n">
+        <v>22.924</v>
+      </c>
+      <c r="D188" t="n">
+        <v>45.9606096</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.194069111</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.962009505</v>
+      </c>
+      <c r="G188" t="n">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9/2005</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C189" t="n">
+        <v>23.281</v>
+      </c>
+      <c r="D189" t="n">
+        <v>79.95643200000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.055659058</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.970438066</v>
+      </c>
+      <c r="G189" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>10/2005</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>32.999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D190" t="n">
+        <v>84.23766000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.674596208</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.959470581</v>
+      </c>
+      <c r="G190" t="n">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>11/2005</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>33.738</v>
+      </c>
+      <c r="C191" t="n">
+        <v>22.515</v>
+      </c>
+      <c r="D191" t="n">
+        <v>20.5238362</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.849519242</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.962332412</v>
+      </c>
+      <c r="G191" t="n">
+        <v>22.24</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>12/2005</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>34.988</v>
+      </c>
+      <c r="C192" t="n">
+        <v>22.643</v>
+      </c>
+      <c r="D192" t="n">
+        <v>19.2123355</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.347835459</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.952714097</v>
+      </c>
+      <c r="G192" t="n">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1/2006</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>38.635</v>
+      </c>
+      <c r="C193" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="D193" t="n">
+        <v>7.10334828</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.121971672</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.731884525</v>
+      </c>
+      <c r="G193" t="n">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2/2006</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>40.842</v>
+      </c>
+      <c r="C194" t="n">
+        <v>21.859</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.245037187</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.619014908</v>
+      </c>
+      <c r="G194" t="n">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>3/2006</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>41.018</v>
+      </c>
+      <c r="C195" t="n">
+        <v>23.568</v>
+      </c>
+      <c r="D195" t="n">
+        <v>23.13480791</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.883463556</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.75941201</v>
+      </c>
+      <c r="G195" t="n">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4/2006</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="C196" t="n">
+        <v>24.526</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.058076132</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.002266537</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.756382394</v>
+      </c>
+      <c r="G196" t="n">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>5/2006</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>40.186</v>
+      </c>
+      <c r="C197" t="n">
+        <v>25.028</v>
+      </c>
+      <c r="D197" t="n">
+        <v>71.66695679999999</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.551903068</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.9652257990000001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>6/2006</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="C198" t="n">
+        <v>23.698</v>
+      </c>
+      <c r="D198" t="n">
+        <v>76.6485216</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.808690299</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.964298985</v>
+      </c>
+      <c r="G198" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>7/2006</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>30.811</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.332</v>
+      </c>
+      <c r="D199" t="n">
+        <v>32.37875136</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.870499673</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.972226183</v>
+      </c>
+      <c r="G199" t="n">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>8/2006</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23.348</v>
+      </c>
+      <c r="D200" t="n">
+        <v>42.7453992</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.845766388</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.9704750009999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>9/2006</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>33.186</v>
+      </c>
+      <c r="C201" t="n">
+        <v>23.162</v>
+      </c>
+      <c r="D201" t="n">
+        <v>86.34221496000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.59194986</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.980369245</v>
+      </c>
+      <c r="G201" t="n">
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>10/2006</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>34.958</v>
+      </c>
+      <c r="C202" t="n">
+        <v>23.006</v>
+      </c>
+      <c r="D202" t="n">
+        <v>37.89937138</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.647939671</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.961776117</v>
+      </c>
+      <c r="G202" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>11/2006</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>34.729</v>
+      </c>
+      <c r="C203" t="n">
+        <v>23.179</v>
+      </c>
+      <c r="D203" t="n">
+        <v>29.21333821</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.146654395</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.969356333</v>
+      </c>
+      <c r="G203" t="n">
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>12/2006</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>36.188</v>
+      </c>
+      <c r="C204" t="n">
+        <v>22.606</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.73098608</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.779032343</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.786916517</v>
+      </c>
+      <c r="G204" t="n">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1/2007</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>38.765</v>
+      </c>
+      <c r="C205" t="n">
+        <v>24.192</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.013732906</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.552981462</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.622904112</v>
+      </c>
+      <c r="G205" t="n">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2/2007</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>39.264</v>
+      </c>
+      <c r="C206" t="n">
+        <v>22.725</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.377655235</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.032569555</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.655516403</v>
+      </c>
+      <c r="G206" t="n">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3/2007</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>43.029</v>
+      </c>
+      <c r="C207" t="n">
+        <v>23.348</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.00500632</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.89360806</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.724452446</v>
+      </c>
+      <c r="G207" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>4/2007</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>43.662</v>
+      </c>
+      <c r="C208" t="n">
+        <v>25.449</v>
+      </c>
+      <c r="D208" t="n">
+        <v>22.19367428</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.924898149</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.835714837</v>
+      </c>
+      <c r="G208" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>5/2007</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>36.733</v>
+      </c>
+      <c r="C209" t="n">
+        <v>26.544</v>
+      </c>
+      <c r="D209" t="n">
+        <v>43.48868184</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.044169454</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.877332922</v>
+      </c>
+      <c r="G209" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>6/2007</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>36.182</v>
+      </c>
+      <c r="C210" t="n">
+        <v>25.154</v>
+      </c>
+      <c r="D210" t="n">
+        <v>115.7547204</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.594874741</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.972298176</v>
+      </c>
+      <c r="G210" t="n">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>7/2007</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>29.064</v>
+      </c>
+      <c r="C211" t="n">
+        <v>24.002</v>
+      </c>
+      <c r="D211" t="n">
+        <v>82.80771444</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.205265021</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.972805586</v>
+      </c>
+      <c r="G211" t="n">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>8/2007</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>31.353</v>
+      </c>
+      <c r="C212" t="n">
+        <v>23.203</v>
+      </c>
+      <c r="D212" t="n">
+        <v>62.0933724</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.851950493</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.973377576</v>
+      </c>
+      <c r="G212" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>9/2007</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D213" t="n">
+        <v>45.7357284</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.778836043</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.9702663540000001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>10/2007</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>34.358</v>
+      </c>
+      <c r="C214" t="n">
+        <v>23.108</v>
+      </c>
+      <c r="D214" t="n">
+        <v>70.93048716</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.522298227</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.964338619</v>
+      </c>
+      <c r="G214" t="n">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>11/2007</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>35.664</v>
+      </c>
+      <c r="C215" t="n">
+        <v>22.813</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12.02487134</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.769012196</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.932453985</v>
+      </c>
+      <c r="G215" t="n">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>12/2007</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>36.931</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22.911</v>
+      </c>
+      <c r="D216" t="n">
+        <v>16.15162031</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.946296802</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.8606185159999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1/2008</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>38.842</v>
+      </c>
+      <c r="C217" t="n">
+        <v>22.265</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.26593072</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.647186881</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.727654363</v>
+      </c>
+      <c r="G217" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2/2008</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>40.491</v>
+      </c>
+      <c r="C218" t="n">
+        <v>23.162</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9.911721168</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.923365401</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.870460622</v>
+      </c>
+      <c r="G218" t="n">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>3/2008</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="C219" t="n">
+        <v>23.848</v>
+      </c>
+      <c r="D219" t="n">
+        <v>78.2243514</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.23430444</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.947296036</v>
+      </c>
+      <c r="G219" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4/2008</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>41.766</v>
+      </c>
+      <c r="C220" t="n">
+        <v>24.224</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9.836198906</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.914926447</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.78597975</v>
+      </c>
+      <c r="G220" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>5/2008</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>36.563</v>
+      </c>
+      <c r="C221" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D221" t="n">
+        <v>19.54193965</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.958207176</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.939860971</v>
+      </c>
+      <c r="G221" t="n">
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>6/2008</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>32.588</v>
+      </c>
+      <c r="C222" t="n">
+        <v>23.187</v>
+      </c>
+      <c r="D222" t="n">
+        <v>28.94554512</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.56042144</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.948719763</v>
+      </c>
+      <c r="G222" t="n">
+        <v>24.74</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>7/2008</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>32.153</v>
+      </c>
+      <c r="C223" t="n">
+        <v>23.934</v>
+      </c>
+      <c r="D223" t="n">
+        <v>54.2913444</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.975511642</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.964794124</v>
+      </c>
+      <c r="G223" t="n">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>8/2008</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>32.432</v>
+      </c>
+      <c r="C224" t="n">
+        <v>23.089</v>
+      </c>
+      <c r="D224" t="n">
+        <v>44.3435976</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.962455446</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.966815567</v>
+      </c>
+      <c r="G224" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>9/2008</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>32.626</v>
+      </c>
+      <c r="C225" t="n">
+        <v>22.471</v>
+      </c>
+      <c r="D225" t="n">
+        <v>23.49701532</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.15556916</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.95631734</v>
+      </c>
+      <c r="G225" t="n">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>10/2008</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>37.928</v>
+      </c>
+      <c r="C226" t="n">
+        <v>23.577</v>
+      </c>
+      <c r="D226" t="n">
+        <v>47.69271252</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.790683724</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.971931593</v>
+      </c>
+      <c r="G226" t="n">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>11/2008</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>36.867</v>
+      </c>
+      <c r="C227" t="n">
+        <v>22.862</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11.44466712</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.806573586</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.940428218</v>
+      </c>
+      <c r="G227" t="n">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>12/2008</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>36.787</v>
+      </c>
+      <c r="C228" t="n">
+        <v>22.945</v>
+      </c>
+      <c r="D228" t="n">
+        <v>14.15178603</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.812924469</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.827609108</v>
+      </c>
+      <c r="G228" t="n">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1/2009</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>38.307</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21.611</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.176811134</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.788308055</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.656426015</v>
+      </c>
+      <c r="G229" t="n">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2/2009</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>40.629</v>
+      </c>
+      <c r="C230" t="n">
+        <v>22.006</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.072097776</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.031527288</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.710771803</v>
+      </c>
+      <c r="G230" t="n">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>3/2009</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>41.881</v>
+      </c>
+      <c r="C231" t="n">
+        <v>24.261</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11.72447496</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.599769456</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.841138086</v>
+      </c>
+      <c r="G231" t="n">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4/2009</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>41.904</v>
+      </c>
+      <c r="C232" t="n">
+        <v>25.243</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9.750369131999999</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.888243628</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.8299293599999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>5/2009</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="C233" t="n">
+        <v>25.169</v>
+      </c>
+      <c r="D233" t="n">
+        <v>22.73480712</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.110853138</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.874526971</v>
+      </c>
+      <c r="G233" t="n">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>6/2009</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>32.234</v>
+      </c>
+      <c r="C234" t="n">
+        <v>23.292</v>
+      </c>
+      <c r="D234" t="n">
+        <v>24.4325628</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.939085801</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.957115004</v>
+      </c>
+      <c r="G234" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7/2009</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="C235" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="D235" t="n">
+        <v>45.7039908</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.255173582</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.972532896</v>
+      </c>
+      <c r="G235" t="n">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>8/2009</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>33.479</v>
+      </c>
+      <c r="C236" t="n">
+        <v>22.804</v>
+      </c>
+      <c r="D236" t="n">
+        <v>31.7401812</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.608056072</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.9671606190000001</v>
+      </c>
+      <c r="G236" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>9/2009</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>30.854</v>
+      </c>
+      <c r="C237" t="n">
+        <v>23.742</v>
+      </c>
+      <c r="D237" t="n">
+        <v>88.16357664</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.510955055</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.97988496</v>
+      </c>
+      <c r="G237" t="n">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>10/2009</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>35.428</v>
+      </c>
+      <c r="C238" t="n">
+        <v>23.557</v>
+      </c>
+      <c r="D238" t="n">
+        <v>48.295206</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.702911871</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.970936029</v>
+      </c>
+      <c r="G238" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>11/2009</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>36.682</v>
+      </c>
+      <c r="C239" t="n">
+        <v>22.778</v>
+      </c>
+      <c r="D239" t="n">
+        <v>34.28935883</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.272382288</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.9619141879999999</v>
+      </c>
+      <c r="G239" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>12/2009</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>36.342</v>
+      </c>
+      <c r="C240" t="n">
+        <v>23.148</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9.606172320000001</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.635224907</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.882982112</v>
+      </c>
+      <c r="G240" t="n">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1/2010</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>38.242</v>
+      </c>
+      <c r="C241" t="n">
+        <v>22.271</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.45382416</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.922021544</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.788927693</v>
+      </c>
+      <c r="G241" t="n">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2/2010</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>39.894</v>
+      </c>
+      <c r="C242" t="n">
+        <v>22.987</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.956010436</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.137552922</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.729107576</v>
+      </c>
+      <c r="G242" t="n">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>3/2010</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>42.94</v>
+      </c>
+      <c r="C243" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.63514782</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.957357798</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.7472211600000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>4/2010</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>40.085</v>
+      </c>
+      <c r="C244" t="n">
+        <v>25.563</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.541228</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.877960491</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.783572729</v>
+      </c>
+      <c r="G244" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>5/2010</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>37.565</v>
+      </c>
+      <c r="C245" t="n">
+        <v>25.785</v>
+      </c>
+      <c r="D245" t="n">
+        <v>31.73675292</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.772254016</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.904934954</v>
+      </c>
+      <c r="G245" t="n">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>6/2010</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>34.018</v>
+      </c>
+      <c r="C246" t="n">
+        <v>24.485</v>
+      </c>
+      <c r="D246" t="n">
+        <v>62.7439392</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.242809185</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.965218279</v>
+      </c>
+      <c r="G246" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>7/2010</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>31.912</v>
+      </c>
+      <c r="C247" t="n">
+        <v>22.895</v>
+      </c>
+      <c r="D247" t="n">
+        <v>23.4884232</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.801603733</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.968048982</v>
+      </c>
+      <c r="G247" t="n">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>8/2010</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>30.184</v>
+      </c>
+      <c r="C248" t="n">
+        <v>23.051</v>
+      </c>
+      <c r="D248" t="n">
+        <v>57.6250056</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.833973181</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.970332828</v>
+      </c>
+      <c r="G248" t="n">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>9/2010</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>33.829</v>
+      </c>
+      <c r="C249" t="n">
+        <v>23.025</v>
+      </c>
+      <c r="D249" t="n">
+        <v>60.9586506</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.531015348</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.963366385</v>
+      </c>
+      <c r="G249" t="n">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>10/2010</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>32.332</v>
+      </c>
+      <c r="C250" t="n">
+        <v>23.302</v>
+      </c>
+      <c r="D250" t="n">
+        <v>21.31691436</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.485086199</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.965326898</v>
+      </c>
+      <c r="G250" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>11/2010</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>34.451</v>
+      </c>
+      <c r="C251" t="n">
+        <v>22.601</v>
+      </c>
+      <c r="D251" t="n">
+        <v>16.88804892</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.816610471</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.956946787</v>
+      </c>
+      <c r="G251" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>12/2010</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="C252" t="n">
+        <v>21.964</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.562758685</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.966890728</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.867026592</v>
+      </c>
+      <c r="G252" t="n">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1/2011</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>39.318</v>
+      </c>
+      <c r="C253" t="n">
+        <v>22.704</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.891420376</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.680711967</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.761056884</v>
+      </c>
+      <c r="G253" t="n">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2/2011</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>38.738</v>
+      </c>
+      <c r="C254" t="n">
+        <v>23.331</v>
+      </c>
+      <c r="D254" t="n">
+        <v>12.93124788</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.969266509</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.784093353</v>
+      </c>
+      <c r="G254" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>3/2011</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>40.782</v>
+      </c>
+      <c r="C255" t="n">
+        <v>24.029</v>
+      </c>
+      <c r="D255" t="n">
+        <v>6.402963204</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.97011819</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.819619326</v>
+      </c>
+      <c r="G255" t="n">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>4/2011</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>39.547</v>
+      </c>
+      <c r="C256" t="n">
+        <v>25.038</v>
+      </c>
+      <c r="D256" t="n">
+        <v>34.92966204</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.791093598</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.878484408</v>
+      </c>
+      <c r="G256" t="n">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>5/2011</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>35.076</v>
+      </c>
+      <c r="C257" t="n">
+        <v>25.331</v>
+      </c>
+      <c r="D257" t="n">
+        <v>20.30754208</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.054681173</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.884583685</v>
+      </c>
+      <c r="G257" t="n">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>6/2011</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>29.941</v>
+      </c>
+      <c r="C258" t="n">
+        <v>24.911</v>
+      </c>
+      <c r="D258" t="n">
+        <v>110.9069712</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.705528855</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.968953183</v>
+      </c>
+      <c r="G258" t="n">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>7/2011</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>29.926</v>
+      </c>
+      <c r="C259" t="n">
+        <v>23.676</v>
+      </c>
+      <c r="D259" t="n">
+        <v>42.9359436</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.96083732</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.956947335</v>
+      </c>
+      <c r="G259" t="n">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>8/2011</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>30.193</v>
+      </c>
+      <c r="C260" t="n">
+        <v>24.031</v>
+      </c>
+      <c r="D260" t="n">
+        <v>62.7387552</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.925447488</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.9674862869999999</v>
+      </c>
+      <c r="G260" t="n">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>9/2011</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>31.589</v>
+      </c>
+      <c r="C261" t="n">
+        <v>23.875</v>
+      </c>
+      <c r="D261" t="n">
+        <v>73.3337784</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.112647742</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.9681583540000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>10/2011</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>35.184</v>
+      </c>
+      <c r="C262" t="n">
+        <v>23.194</v>
+      </c>
+      <c r="D262" t="n">
+        <v>27.86065402</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.686784991</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.93804577</v>
+      </c>
+      <c r="G262" t="n">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>11/2011</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>35.671</v>
+      </c>
+      <c r="C263" t="n">
+        <v>23.502</v>
+      </c>
+      <c r="D263" t="n">
+        <v>11.86180083</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3.266465773</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.895667281</v>
+      </c>
+      <c r="G263" t="n">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>12/2011</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>37.177</v>
+      </c>
+      <c r="C264" t="n">
+        <v>22.951</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.225513582</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.572921476</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.835931962</v>
+      </c>
+      <c r="G264" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1/2012</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="C265" t="n">
+        <v>23.112</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.5699155460000001</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.135441591</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.710209989</v>
+      </c>
+      <c r="G265" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2/2012</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>41.148</v>
+      </c>
+      <c r="C266" t="n">
+        <v>22.482</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.24018172</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.963397425</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.743086225</v>
+      </c>
+      <c r="G266" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>3/2012</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>41.166</v>
+      </c>
+      <c r="C267" t="n">
+        <v>24.517</v>
+      </c>
+      <c r="D267" t="n">
+        <v>20.63369808</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.424014295</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.776640789</v>
+      </c>
+      <c r="G267" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>4/2012</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>38.214</v>
+      </c>
+      <c r="C268" t="n">
+        <v>26.087</v>
+      </c>
+      <c r="D268" t="n">
+        <v>35.86861692</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.86293061</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.887666072</v>
+      </c>
+      <c r="G268" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>5/2012</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>35.298</v>
+      </c>
+      <c r="C269" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D269" t="n">
+        <v>22.24216582</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.290522228</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.879813027</v>
+      </c>
+      <c r="G269" t="n">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>6/2012</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="C270" t="n">
+        <v>24.321</v>
+      </c>
+      <c r="D270" t="n">
+        <v>74.06498879999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.105157271</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.958390533</v>
+      </c>
+      <c r="G270" t="n">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>7/2012</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="C271" t="n">
+        <v>23.525</v>
+      </c>
+      <c r="D271" t="n">
+        <v>32.9795856</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.995069712</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.961872616</v>
+      </c>
+      <c r="G271" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>8/2012</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>31.354</v>
+      </c>
+      <c r="C272" t="n">
+        <v>23.703</v>
+      </c>
+      <c r="D272" t="n">
+        <v>58.7630808</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.31060219</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.965293426</v>
+      </c>
+      <c r="G272" t="n">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>9/2012</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="C273" t="n">
+        <v>23.717</v>
+      </c>
+      <c r="D273" t="n">
+        <v>62.237529</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.785683464</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.961994807</v>
+      </c>
+      <c r="G273" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>10/2012</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>35.018</v>
+      </c>
+      <c r="C274" t="n">
+        <v>23.587</v>
+      </c>
+      <c r="D274" t="n">
+        <v>46.4069052</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.598457713</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.938386048</v>
+      </c>
+      <c r="G274" t="n">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>11/2012</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>35.931</v>
+      </c>
+      <c r="C275" t="n">
+        <v>23.572</v>
+      </c>
+      <c r="D275" t="n">
+        <v>20.75042552</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.76014304</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.962544407</v>
+      </c>
+      <c r="G275" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>12/2012</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>38.591</v>
+      </c>
+      <c r="C276" t="n">
+        <v>23.476</v>
+      </c>
+      <c r="D276" t="n">
+        <v>8.267212799999999</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.086768747</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.790360296</v>
+      </c>
+      <c r="G276" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1/2013</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>38.189</v>
+      </c>
+      <c r="C277" t="n">
+        <v>23.305</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.017017842</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.920788475</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.739145717</v>
+      </c>
+      <c r="G277" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2/2013</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>40.274</v>
+      </c>
+      <c r="C278" t="n">
+        <v>24.413</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.464127</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.29267399</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.762330103</v>
+      </c>
+      <c r="G278" t="n">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>3/2013</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>40.491</v>
+      </c>
+      <c r="C279" t="n">
+        <v>26.279</v>
+      </c>
+      <c r="D279" t="n">
+        <v>9.510041771999999</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.913847658</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.793102858</v>
+      </c>
+      <c r="G279" t="n">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>4/2013</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>39.274</v>
+      </c>
+      <c r="C280" t="n">
+        <v>25.439</v>
+      </c>
+      <c r="D280" t="n">
+        <v>13.9560705</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.196207449</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.814049639</v>
+      </c>
+      <c r="G280" t="n">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>5/2013</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>36.446</v>
+      </c>
+      <c r="C281" t="n">
+        <v>25.595</v>
+      </c>
+      <c r="D281" t="n">
+        <v>17.17643536</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.996790607</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.881071401</v>
+      </c>
+      <c r="G281" t="n">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>6/2013</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>31.945</v>
+      </c>
+      <c r="C282" t="n">
+        <v>23.936</v>
+      </c>
+      <c r="D282" t="n">
+        <v>38.2641768</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.58144995</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.955282645</v>
+      </c>
+      <c r="G282" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>7/2013</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>28.974</v>
+      </c>
+      <c r="C283" t="n">
+        <v>23.475</v>
+      </c>
+      <c r="D283" t="n">
+        <v>50.7242232</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.605774987</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.967502813</v>
+      </c>
+      <c r="G283" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>8/2013</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>32.733</v>
+      </c>
+      <c r="C284" t="n">
+        <v>23.331</v>
+      </c>
+      <c r="D284" t="n">
+        <v>39.2812704</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.820814883</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.963886479</v>
+      </c>
+      <c r="G284" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>9/2013</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>33.517</v>
+      </c>
+      <c r="C285" t="n">
+        <v>23.901</v>
+      </c>
+      <c r="D285" t="n">
+        <v>73.14841439999999</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1.97040899</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.970291824</v>
+      </c>
+      <c r="G285" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>10/2013</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>33.857</v>
+      </c>
+      <c r="C286" t="n">
+        <v>23.494</v>
+      </c>
+      <c r="D286" t="n">
+        <v>19.99511424</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.523633898</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.959288439</v>
+      </c>
+      <c r="G286" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>11/2013</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>35.664</v>
+      </c>
+      <c r="C287" t="n">
+        <v>22.587</v>
+      </c>
+      <c r="D287" t="n">
+        <v>10.16921916</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.510988543</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.8845975700000001</v>
+      </c>
+      <c r="G287" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>12/2013</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>37.005</v>
+      </c>
+      <c r="C288" t="n">
+        <v>22.496</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.614401018</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.258580495</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.805048243</v>
+      </c>
+      <c r="G288" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1/2014</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>38.006</v>
+      </c>
+      <c r="C289" t="n">
+        <v>22.921</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.041841852</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.543553375</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.643461018</v>
+      </c>
+      <c r="G289" t="n">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2/2014</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>39.067</v>
+      </c>
+      <c r="C290" t="n">
+        <v>23.443</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2.725981891</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.987510712</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.742503299</v>
+      </c>
+      <c r="G290" t="n">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>3/2014</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>42.628</v>
+      </c>
+      <c r="C291" t="n">
+        <v>23.693</v>
+      </c>
+      <c r="D291" t="n">
+        <v>3.25469772</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.076884555</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.7307899410000001</v>
+      </c>
+      <c r="G291" t="n">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>4/2014</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>40.383</v>
+      </c>
+      <c r="C292" t="n">
+        <v>25.713</v>
+      </c>
+      <c r="D292" t="n">
+        <v>10.98975924</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.010227253</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.796330977</v>
+      </c>
+      <c r="G292" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>5/2014</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>39.476</v>
+      </c>
+      <c r="C293" t="n">
+        <v>25.709</v>
+      </c>
+      <c r="D293" t="n">
+        <v>51.6271464</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.536994021</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.945852597</v>
+      </c>
+      <c r="G293" t="n">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>6/2014</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>32.713</v>
+      </c>
+      <c r="C294" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D294" t="n">
+        <v>30.892176</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2.196879073</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.954914325</v>
+      </c>
+      <c r="G294" t="n">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
           <t>7/2014</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B295" t="n">
         <v>31.095</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C295" t="n">
         <v>23.723</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D295" t="n">
         <v>40.98587076</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E295" t="n">
         <v>2.346582921</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F295" t="n">
         <v>0.969668894</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G295" t="n">
         <v>24.9</v>
       </c>
     </row>
